--- a/SU - Suspension/Cost/SU_A0500.xlsx
+++ b/SU - Suspension/Cost/SU_A0500.xlsx
@@ -6,11 +6,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitEPSA\SU - Suspension\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" activeTab="4"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -722,7 +722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="20">
+  <numFmts count="18">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
@@ -741,10 +741,8 @@
     <numFmt numFmtId="177" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;?????\ _€_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="179" formatCode="\$#,##0.00,;&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -954,22 +952,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1032,11 +1016,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1503,16 +1482,16 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="182" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2812,7 +2791,7 @@
       <c r="H7" s="114"/>
       <c r="I7" s="116">
         <f t="shared" ref="I7:I8" si="0">SUM(K7:N7)</f>
-        <v>665.15333333333342</v>
+        <v>665.06112416361361</v>
       </c>
       <c r="J7" s="117">
         <f>SU_A0500_q</f>
@@ -2828,7 +2807,7 @@
       </c>
       <c r="M7" s="118">
         <f>SU_A0500_f</f>
-        <v>0.5</v>
+        <v>0.40779083028016511</v>
       </c>
       <c r="N7" s="118">
         <f>SU_A0500_t</f>
@@ -2836,7 +2815,7 @@
       </c>
       <c r="O7" s="119">
         <f t="shared" ref="O7:O8" si="1">I7*J7</f>
-        <v>665.15333333333342</v>
+        <v>665.06112416361361</v>
       </c>
       <c r="P7" s="120"/>
     </row>
@@ -2916,7 +2895,7 @@
       </c>
       <c r="M9" s="95">
         <f>SUMPRODUCT($J7:$J8,M7:M8)</f>
-        <v>0.5</v>
+        <v>0.40779083028016511</v>
       </c>
       <c r="N9" s="95">
         <f>SUMPRODUCT($J7:$J8,N7:N8)</f>
@@ -2924,7 +2903,7 @@
       </c>
       <c r="O9" s="95">
         <f>SUM(O7:O8)</f>
-        <v>677.00013616784383</v>
+        <v>676.90792699812403</v>
       </c>
       <c r="P9" s="2"/>
     </row>
@@ -5316,8 +5295,8 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5382,7 +5361,7 @@
       </c>
       <c r="N2" s="94">
         <f>SU_A0500_pa+SU_A0500_m+SU_A0500_p+SU_A0500_f+SU_A0500_t</f>
-        <v>677.00013616784383</v>
+        <v>676.90792699812403</v>
       </c>
       <c r="O2" s="65"/>
     </row>
@@ -5458,7 +5437,7 @@
       </c>
       <c r="N5" s="76">
         <f>N2*N3</f>
-        <v>677.00013616784383</v>
+        <v>676.90792699812403</v>
       </c>
       <c r="O5" s="65"/>
     </row>
@@ -6268,7 +6247,8 @@
         <v>144</v>
       </c>
       <c r="D34" s="77">
-        <v>0.19</v>
+        <f>0.8/105154*E34^2*G34*SQRT(G34)+0.003*EXP(0.319*E34)</f>
+        <v>0.13931812332052654</v>
       </c>
       <c r="E34" s="78">
         <v>8</v>
@@ -6287,7 +6267,7 @@
       </c>
       <c r="J34" s="76">
         <f>I34*D34</f>
-        <v>0.38</v>
+        <v>0.27863624664105308</v>
       </c>
       <c r="K34" s="59"/>
       <c r="L34" s="59"/>
@@ -6340,7 +6320,8 @@
         <v>144</v>
       </c>
       <c r="D36" s="77">
-        <v>0.04</v>
+        <f>0.009*EXP(0.2*E36)</f>
+        <v>4.4577291819556032E-2</v>
       </c>
       <c r="E36" s="75">
         <v>8</v>
@@ -6355,7 +6336,7 @@
       </c>
       <c r="J36" s="76">
         <f>I36*D36</f>
-        <v>0.08</v>
+        <v>8.9154583639112064E-2</v>
       </c>
       <c r="K36" s="59"/>
       <c r="L36" s="59"/>
@@ -6377,7 +6358,7 @@
       </c>
       <c r="J37" s="98">
         <f>SUM(J34:J36)</f>
-        <v>0.5</v>
+        <v>0.40779083028016511</v>
       </c>
       <c r="K37" s="59"/>
       <c r="L37" s="59"/>
@@ -7306,7 +7287,7 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/SU - Suspension/Cost/SU_A0500.xlsx
+++ b/SU - Suspension/Cost/SU_A0500.xlsx
@@ -13,11 +13,10 @@
     <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="7" r:id="rId1"/>
-    <sheet name="BOM" sheetId="8" r:id="rId2"/>
-    <sheet name="SU A0500" sheetId="1" r:id="rId3"/>
-    <sheet name="SU 510_001" sheetId="2" r:id="rId4"/>
-    <sheet name="dSU 510_001" sheetId="9" r:id="rId5"/>
+    <sheet name="BOM" sheetId="8" r:id="rId1"/>
+    <sheet name="SU A0500" sheetId="1" r:id="rId2"/>
+    <sheet name="SU 510 001" sheetId="2" r:id="rId3"/>
+    <sheet name="dSU 510 001" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="____________uni2">#REF!</definedName>
@@ -49,14 +48,14 @@
     <definedName name="bgvfcd">#REF!</definedName>
     <definedName name="btgrvf">#REF!</definedName>
     <definedName name="btvfcds">#REF!</definedName>
-    <definedName name="Car" localSheetId="1">BOM!$B$4</definedName>
+    <definedName name="Car" localSheetId="0">BOM!$B$4</definedName>
     <definedName name="Car">#REF!</definedName>
-    <definedName name="CompCode" localSheetId="1">BOM!$B$2</definedName>
+    <definedName name="CompCode" localSheetId="0">BOM!$B$2</definedName>
     <definedName name="CompCode">#REF!</definedName>
     <definedName name="cwlkvclwekjc">#REF!</definedName>
     <definedName name="dede">#REF!</definedName>
     <definedName name="dqwdqd">#REF!</definedName>
-    <definedName name="dSU_510_001">'dSU 510_001'!$B$1</definedName>
+    <definedName name="dSU_510_001">'dSU 510 001'!$B$1</definedName>
     <definedName name="eded">#REF!</definedName>
     <definedName name="er">#REF!</definedName>
     <definedName name="ervcdx">#REF!</definedName>
@@ -74,23 +73,23 @@
     <definedName name="gvfdc">#REF!</definedName>
     <definedName name="hgfd">#REF!</definedName>
     <definedName name="hygtrfvcdx">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">BOM!$6:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM!$6:$6</definedName>
     <definedName name="nbtgv">#REF!</definedName>
     <definedName name="process">#REF!</definedName>
     <definedName name="Process_P1">#REF!</definedName>
-    <definedName name="Processes" localSheetId="1">#REF!</definedName>
+    <definedName name="Processes" localSheetId="0">#REF!</definedName>
     <definedName name="Processes">#REF!</definedName>
     <definedName name="qsfdc">#REF!</definedName>
     <definedName name="rfcdx">#REF!</definedName>
     <definedName name="rfds">#REF!</definedName>
     <definedName name="rtfed">#REF!</definedName>
     <definedName name="sdf">#REF!</definedName>
-    <definedName name="SU_510_001">'SU 510_001'!$B$6</definedName>
-    <definedName name="SU_510_001_f">'SU 510_001'!#REF!</definedName>
-    <definedName name="SU_510_001_m">'SU 510_001'!$N$12</definedName>
-    <definedName name="SU_510_001_p">'SU 510_001'!$I$22</definedName>
-    <definedName name="SU_510_001_q">'SU 510_001'!$N$3</definedName>
-    <definedName name="SU_510_001_t">'SU 510_001'!#REF!</definedName>
+    <definedName name="SU_510_001">'SU 510 001'!$B$6</definedName>
+    <definedName name="SU_510_001_f">'SU 510 001'!#REF!</definedName>
+    <definedName name="SU_510_001_m">'SU 510 001'!$N$12</definedName>
+    <definedName name="SU_510_001_p">'SU 510 001'!$I$22</definedName>
+    <definedName name="SU_510_001_q">'SU 510 001'!$N$3</definedName>
+    <definedName name="SU_510_001_t">'SU 510 001'!#REF!</definedName>
     <definedName name="SU_A0500">'SU A0500'!$B$5</definedName>
     <definedName name="SU_A0500_f">'SU A0500'!$J$37</definedName>
     <definedName name="SU_A0500_m">'SU A0500'!$N$18</definedName>
@@ -107,7 +106,7 @@
     <definedName name="trfds">#REF!</definedName>
     <definedName name="trhzjyeuk">#REF!</definedName>
     <definedName name="ujyhbgvf">#REF!</definedName>
-    <definedName name="Uni" localSheetId="1">BOM!#REF!</definedName>
+    <definedName name="Uni" localSheetId="0">BOM!#REF!</definedName>
     <definedName name="Uni">#REF!</definedName>
     <definedName name="vfcd">#REF!</definedName>
     <definedName name="vfcdsx">#REF!</definedName>
@@ -119,14 +118,14 @@
     <definedName name="zefdsc">#REF!</definedName>
     <definedName name="zefdv">#REF!</definedName>
     <definedName name="zer">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">BOM!$A$1:$O$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A$1:$O$9</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
   <si>
     <t>University</t>
   </si>
@@ -329,260 +328,18 @@
     <t>Area Total</t>
   </si>
   <si>
-    <t>Etape 1</t>
-  </si>
-  <si>
-    <t>Créer l'assemblage</t>
-  </si>
-  <si>
-    <t>Donner une brève description (en anglais) de l'assemblage dans la ligne Details</t>
-  </si>
-  <si>
-    <t>Renomme cette cellule du nom du code qu'elle comprend mais avec un _ comme séparateur : ex EL_A0001</t>
-  </si>
-  <si>
-    <t>Cette étape est importante pour créer des hyperliens ensuite</t>
-  </si>
-  <si>
-    <t>Etape 2</t>
-  </si>
-  <si>
-    <t>Remplir les données</t>
-  </si>
-  <si>
-    <t>Etape 3</t>
-  </si>
-  <si>
-    <t>Créer les parts</t>
-  </si>
-  <si>
-    <t>Lui donner un nom en clair (et en anglais ^^) dans la ligne Part</t>
-  </si>
-  <si>
-    <t>Donner une brève description (en anglais) de la Part dans la ligne Details</t>
-  </si>
-  <si>
-    <t>Etape 4</t>
-  </si>
-  <si>
-    <t>Etape 5</t>
-  </si>
-  <si>
-    <t>Inserer les Parts dans l'assemblage</t>
-  </si>
-  <si>
-    <t>Dans la ligne Assembly, indiquer le nom de l'assemblage parent en mettant = puis en sélectionnant le bonne cellule de la page assemblies</t>
-  </si>
-  <si>
-    <t>Remplir dans l'assemblage les cellules nom / part cost et quantity pour chaque parts (toujours en dynamique, ne faites pas de copier coller svp)</t>
-  </si>
-  <si>
-    <t>Etape 6</t>
-  </si>
-  <si>
-    <t>Remplir la BOM</t>
-  </si>
-  <si>
-    <t>Il s'agit de faire la nomenclature de votre partie dans l'onglet BOM</t>
-  </si>
-  <si>
-    <t>Commencez par l'assemblage (de couleur plus foncée)</t>
-  </si>
-  <si>
-    <t>De manière générale la colonne description ne sera pas remplie</t>
-  </si>
-  <si>
-    <t>Cellule ASM/PRT# mettre le code de l'assemblage</t>
-  </si>
-  <si>
-    <t>Laisser la cellule ASM vide</t>
-  </si>
-  <si>
-    <t>Mettre le nom de l'assemblage dans Component, avec un lien vers l'assemblage en question</t>
-  </si>
-  <si>
-    <t>Code dans ASM/PRT# aligné à droite, nom de l'assemblage parent dans ASM, Nom de la part dans Component</t>
-  </si>
-  <si>
-    <t>Mettre un lien vers la part en question sur le nom de cette dernière</t>
-  </si>
-  <si>
     <t>Drawing part :</t>
   </si>
   <si>
     <t>Drawing</t>
   </si>
   <si>
-    <t>Etape 7</t>
-  </si>
-  <si>
-    <t>Ajouter les plans</t>
-  </si>
-  <si>
-    <t>Au-dessus du plan écrire "Drawing part :" et dans la cellule d'à côté mettre le code de la Part en question</t>
-  </si>
-  <si>
-    <t>Ajouter un lien pour pouvoir revenir vers le détail de la Part sur cette cellule</t>
-  </si>
-  <si>
-    <t>Renommer la zone où le code P/N Base est entré. Pour cela selectionner la cellule par un simple clic, cliquer ensuite dans le menu déroulant en haut à gauche indiquant le nom de la cellule (à côté de la barre de formule)</t>
-  </si>
-  <si>
-    <t>Insérer un lien vers la Part sur le plan par clic droit sur l'image. Cible du lien vers la Part (ex EL_01001)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pour la quantité des parts : mettre la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>quantité absolue</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sur la voiture !!! Du coup c'est quantité de l'assemblage * quantité de cette part dans l'assemblage</t>
-    </r>
-  </si>
-  <si>
-    <t>Renommer les cases quantité (cellule N3), et sous-totaux par respectivement code_de_l'assemblage_x avec x = q pour quantité, pa pour part, m pour material, f pour fastener, t pour tooling et p pour process</t>
-  </si>
-  <si>
-    <t>Feuille Br Assembly : Feuille pour 1 assemblage du système BR. Pour un nouvel assemblage, créer un nouveau document à partir du template. 1 document Excel = 1 assemblage</t>
-  </si>
-  <si>
-    <t>Donner un nom clair à l'assemblage (et en anglais ^^) dans la ligne Assembly</t>
-  </si>
-  <si>
-    <t>Ajouter une illustration de la part (photo propre sur fond blanc si possible, vue CATIA sinon) dans la plus basse définition possible svp, on est limité en taille de fichier</t>
-  </si>
-  <si>
-    <t>Remplir les données de l'assemblage</t>
-  </si>
-  <si>
-    <t>Pour toute question, contacter Raphaël Mounet ou Clément Marie par Messenger de préférence, par mail sinon.</t>
-  </si>
-  <si>
-    <t>Renommer l'onglet avec ce même code. Enregistrer le document Excel sous ce même nom.</t>
-  </si>
-  <si>
-    <t>Renommer l'onglet avec ce même code.</t>
-  </si>
-  <si>
-    <t>Renommer cette cellule du nom du code qu'elle comprend mais avec un _ comme séparateur : ex BR_01001</t>
-  </si>
-  <si>
-    <t>Lui donner un code suivant la règle XX AYYYY dans la ligne P/N Base , avec XX le code de votre partie et YYYY le numéro de l'assemblage (c'est le même code que celui que vous avez dû utiliser sous CATIA)</t>
-  </si>
-  <si>
-    <t>Lui donner un code suivant la règle XX YYZZZ dans la ligne P/N Base , avec XX le code de votre partie et YY le numéro de l'assemblage et ZZZ le numéro de la part dans cet assemblage (même code que sous CATIA)</t>
-  </si>
-  <si>
-    <t>Créer un lien vers l'assemblage : sélectionner la cellule, faites Ctrl+K, il apparait une fenetre, en référence de la cellule (A1 par défaut) indiquez le nom de la cellule renommé de l'assemblage (par ex BR_A0001)</t>
-  </si>
-  <si>
-    <t>Renommer les cases quantité (cellule N3), et sous-totaux de chaque part respectivement code_de_la_part_x avec x = q pour quantité, m pour material, f pour fastener, t pour tooling et p pour process</t>
-  </si>
-  <si>
-    <t>ex : BR_01001_q, …</t>
-  </si>
-  <si>
-    <t>ex BR_A0001_q, …</t>
-  </si>
-  <si>
-    <t>Remplir la quantité, Material, Process, Fastener, Tooling. Dans le cas où une table n'est pas concernée (elle est restée vide), la supprimer complètement.</t>
-  </si>
-  <si>
-    <t>Renommer la cellule avec le nouveau lien d_code_de_la_part, ex dBR_01001</t>
-  </si>
-  <si>
-    <t>sélectionner la cellule, faites Ctrl+K, apparait une fenetre, en référence de la cellule (A1 par défaut) indiquez le nom de la cellule renommé de la Part (par ex BR_01001)</t>
-  </si>
-  <si>
-    <t>Vérifier que la formule dans Asm Cost (cellule N2) renvoie aux noms corrects des cellules prcédentes. Sinon, faire les modifications nécessaires.</t>
-  </si>
-  <si>
-    <t>Vérifier que la formule dans Part Cost (cellule N2) renvoie aux noms corrects des cellules prcédentes. Sinon, faire les modifications nécessaires.</t>
-  </si>
-  <si>
-    <t>On peut faire 2 colonnes de plan pour des tailles différentes. La référence reste les plans en paysage.</t>
-  </si>
-  <si>
-    <t>Insérer un lien vers la part sur le nom de celle-ci. Pour cela :</t>
-  </si>
-  <si>
-    <t>Remplir les cellules Quantity, Material, Process, Fastener et Tooling cost. Pour ça :</t>
-  </si>
-  <si>
-    <t>il suffit de mettre = Code de la pièce _ x avec q pour quantité, m pour material, p pour process, f pour fastener, t pour tooling (vous aviez renommé les cellules avant)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Remplir la quantité (nombre d'occurrence de la pièce dans </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>un seul</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> assemblage).</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Remplir les tables Material, Fastener, Process et Tooling. Dans le cas où une table n'est pas concernée (elle est restée vide), la supprimer complètement.</t>
-  </si>
-  <si>
-    <t>Feuille Br Part x : Feuille pour 1 part de l'assemblage. Pour faire une nouvelle part, créer un nouvel onglet à partir du template. 1 onglet = 1 part.</t>
-  </si>
-  <si>
-    <t>Faites une capture d'écran du plan de la part en question et coller l'image dans l'onglet "BR Drawing 1"</t>
-  </si>
-  <si>
-    <t>Renommer l'onglet avec ce même code</t>
-  </si>
-  <si>
-    <t>Dans le détail de la part (onglet "BR Part x") écrire à côté de cellule File Link "Drawing" et mettre un lien vers la cellule surplombant le plan ayant le code d_code_de_la_part (ex dBR_01001)</t>
-  </si>
-  <si>
-    <t>Viennent ensuite les Parts. Pour chaque Part :</t>
-  </si>
-  <si>
     <t>FSAEI</t>
   </si>
   <si>
     <t>Back to BOM</t>
   </si>
   <si>
-    <t>Petite marche à suivre pour remplir cette merveille qu'est le cost</t>
-  </si>
-  <si>
-    <t>Consulter le tutoriel disponible sur GitHub, dans Vulcanix-v1.0/Cost Report, pour plus d'informations.</t>
-  </si>
-  <si>
     <t>Suspension &amp; Shocks</t>
   </si>
   <si>
@@ -716,6 +473,9 @@
   </si>
   <si>
     <t>Welding of the mounts</t>
+  </si>
+  <si>
+    <t>SU 510 001</t>
   </si>
 </sst>
 </file>
@@ -742,7 +502,7 @@
     <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="179" formatCode="\$#,##0.00,;&quot;($&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -877,42 +637,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1442,10 +1166,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1454,22 +1178,22 @@
     <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="179" fontId="17" fillId="0" borderId="31">
       <alignment vertical="center" wrapText="1"/>
@@ -1496,7 +1220,7 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1632,11 +1356,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1734,7 +1455,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1746,13 +1467,13 @@
     </xf>
     <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1762,26 +1483,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="13" fillId="10" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1795,11 +1516,11 @@
     <xf numFmtId="18" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2284,357 +2005,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:C82"/>
-  <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="86"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P155"/>
@@ -2654,7 +2024,7 @@
     <col min="3" max="3" width="13.5546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23" style="166" customWidth="1"/>
+    <col min="6" max="6" width="23" style="163" customWidth="1"/>
     <col min="7" max="7" width="39.109375" style="45" customWidth="1"/>
     <col min="8" max="8" width="14" style="9" customWidth="1"/>
     <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
@@ -2668,7 +2038,7 @@
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="90" t="s">
         <v>45</v>
       </c>
       <c r="D1" s="46"/>
@@ -2685,8 +2055,8 @@
       <c r="A2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="92" t="s">
-        <v>133</v>
+      <c r="B2" s="89" t="s">
+        <v>69</v>
       </c>
       <c r="C2" s="14"/>
       <c r="G2" s="41"/>
@@ -2705,7 +2075,7 @@
       <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="91">
+      <c r="B4" s="88">
         <v>81</v>
       </c>
       <c r="C4" s="14"/>
@@ -2771,103 +2141,103 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113" t="str">
+      <c r="A7" s="109"/>
+      <c r="B7" s="110" t="str">
         <f>'SU A0500'!B3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C7" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="115" t="str">
+      <c r="E7" s="111"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="112" t="str">
         <f>'SU A0500'!B4</f>
         <v>Front suspension</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="116">
+      <c r="H7" s="111"/>
+      <c r="I7" s="113">
         <f t="shared" ref="I7:I8" si="0">SUM(K7:N7)</f>
         <v>665.06112416361361</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="114">
         <f>SU_A0500_q</f>
         <v>1</v>
       </c>
-      <c r="K7" s="118">
+      <c r="K7" s="115">
         <f>SU_A0500_m</f>
         <v>660.08</v>
       </c>
-      <c r="L7" s="118">
+      <c r="L7" s="115">
         <f>SU_A0500_p</f>
         <v>4.24</v>
       </c>
-      <c r="M7" s="118">
+      <c r="M7" s="115">
         <f>SU_A0500_f</f>
         <v>0.40779083028016511</v>
       </c>
-      <c r="N7" s="118">
+      <c r="N7" s="115">
         <f>SU_A0500_t</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O7" s="119">
+      <c r="O7" s="116">
         <f t="shared" ref="O7:O8" si="1">I7*J7</f>
         <v>665.06112416361361</v>
       </c>
-      <c r="P7" s="120"/>
+      <c r="P7" s="117"/>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122" t="str">
+      <c r="A8" s="118"/>
+      <c r="B8" s="119" t="str">
         <f>'SU A0500'!B3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
-      <c r="C8" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="124" t="s">
+      <c r="C8" s="120" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="124"/>
-      <c r="F8" s="163" t="str">
+      <c r="E8" s="121"/>
+      <c r="F8" s="160" t="str">
         <f>G7</f>
         <v>Front suspension</v>
       </c>
-      <c r="G8" s="125" t="str">
-        <f>'SU 510_001'!B5</f>
+      <c r="G8" s="122" t="str">
+        <f>'SU 510 001'!B5</f>
         <v>Shock Front Bracket</v>
       </c>
-      <c r="H8" s="124"/>
-      <c r="I8" s="126">
+      <c r="H8" s="121"/>
+      <c r="I8" s="123">
         <f t="shared" si="0"/>
         <v>5.9234014172552163</v>
       </c>
-      <c r="J8" s="127">
+      <c r="J8" s="124">
         <f>SU_510_001_q</f>
         <v>2</v>
       </c>
-      <c r="K8" s="128">
+      <c r="K8" s="125">
         <f>SU_510_001_m</f>
         <v>0.38660141725521602</v>
       </c>
-      <c r="L8" s="128">
+      <c r="L8" s="125">
         <f>SU_510_001_p</f>
         <v>5.5368000000000004</v>
       </c>
-      <c r="M8" s="128">
+      <c r="M8" s="125">
         <v>0</v>
       </c>
-      <c r="N8" s="128">
+      <c r="N8" s="125">
         <v>0</v>
       </c>
-      <c r="O8" s="129">
+      <c r="O8" s="126">
         <f t="shared" si="1"/>
         <v>11.846802834510433</v>
       </c>
-      <c r="P8" s="130"/>
+      <c r="P8" s="127"/>
     </row>
     <row r="9" spans="1:16" s="12" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -2878,30 +2248,30 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="167"/>
+      <c r="F9" s="164"/>
       <c r="G9" s="44" t="s">
         <v>66</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="95">
+      <c r="K9" s="92">
         <f>SUMPRODUCT($J7:$J8,K7:K8)</f>
         <v>660.85320283451051</v>
       </c>
-      <c r="L9" s="95">
+      <c r="L9" s="92">
         <f>SUMPRODUCT($J7:$J8,L7:L8)</f>
         <v>15.313600000000001</v>
       </c>
-      <c r="M9" s="95">
+      <c r="M9" s="92">
         <f>SUMPRODUCT($J7:$J8,M7:M8)</f>
         <v>0.40779083028016511</v>
       </c>
-      <c r="N9" s="95">
+      <c r="N9" s="92">
         <f>SUMPRODUCT($J7:$J8,N7:N8)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O9" s="95">
+      <c r="O9" s="92">
         <f>SUM(O7:O8)</f>
         <v>676.90792699812403</v>
       </c>
@@ -2913,7 +2283,7 @@
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="165"/>
+      <c r="F10" s="162"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="8"/>
@@ -2930,7 +2300,7 @@
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="165"/>
+      <c r="F11" s="162"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="8"/>
@@ -2946,7 +2316,7 @@
       <c r="B12" s="11"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="165"/>
+      <c r="F12" s="162"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="8"/>
@@ -2961,7 +2331,7 @@
       <c r="B13" s="11"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
-      <c r="F13" s="165"/>
+      <c r="F13" s="162"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="8"/>
@@ -2976,7 +2346,7 @@
       <c r="B14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="165"/>
+      <c r="F14" s="162"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="8"/>
@@ -2991,7 +2361,7 @@
       <c r="B15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="165"/>
+      <c r="F15" s="162"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="8"/>
@@ -3006,7 +2376,7 @@
       <c r="B16" s="11"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="165"/>
+      <c r="F16" s="162"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="8"/>
@@ -3021,7 +2391,7 @@
       <c r="B17" s="11"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="165"/>
+      <c r="F17" s="162"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="8"/>
@@ -3036,7 +2406,7 @@
       <c r="B18" s="11"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="165"/>
+      <c r="F18" s="162"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="8"/>
@@ -3051,7 +2421,7 @@
       <c r="B19" s="11"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="165"/>
+      <c r="F19" s="162"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="8"/>
@@ -3066,7 +2436,7 @@
       <c r="B20" s="11"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="165"/>
+      <c r="F20" s="162"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="8"/>
@@ -3081,7 +2451,7 @@
       <c r="B21" s="11"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="165"/>
+      <c r="F21" s="162"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="8"/>
@@ -3096,7 +2466,7 @@
       <c r="B22" s="11"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="165"/>
+      <c r="F22" s="162"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="8"/>
@@ -3111,7 +2481,7 @@
       <c r="B23" s="11"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="165"/>
+      <c r="F23" s="162"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="8"/>
@@ -3126,7 +2496,7 @@
       <c r="B24" s="11"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="165"/>
+      <c r="F24" s="162"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="8"/>
@@ -3141,7 +2511,7 @@
       <c r="B25" s="11"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="165"/>
+      <c r="F25" s="162"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="8"/>
@@ -3156,7 +2526,7 @@
       <c r="B26" s="11"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="165"/>
+      <c r="F26" s="162"/>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="8"/>
@@ -3171,7 +2541,7 @@
       <c r="B27" s="11"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="165"/>
+      <c r="F27" s="162"/>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="8"/>
@@ -3186,7 +2556,7 @@
       <c r="B28" s="11"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="165"/>
+      <c r="F28" s="162"/>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="8"/>
@@ -3201,7 +2571,7 @@
       <c r="B29" s="11"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="165"/>
+      <c r="F29" s="162"/>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="8"/>
@@ -3216,7 +2586,7 @@
       <c r="B30" s="11"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="165"/>
+      <c r="F30" s="162"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="8"/>
@@ -3231,7 +2601,7 @@
       <c r="B31" s="11"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="165"/>
+      <c r="F31" s="162"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="8"/>
@@ -3246,7 +2616,7 @@
       <c r="B32" s="11"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="165"/>
+      <c r="F32" s="162"/>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="8"/>
@@ -3261,7 +2631,7 @@
       <c r="B33" s="11"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="165"/>
+      <c r="F33" s="162"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="8"/>
@@ -3276,7 +2646,7 @@
       <c r="B34" s="11"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="165"/>
+      <c r="F34" s="162"/>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="8"/>
@@ -3291,7 +2661,7 @@
       <c r="B35" s="11"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="165"/>
+      <c r="F35" s="162"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="8"/>
@@ -3306,7 +2676,7 @@
       <c r="B36" s="11"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="165"/>
+      <c r="F36" s="162"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="8"/>
@@ -3321,7 +2691,7 @@
       <c r="B37" s="11"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="165"/>
+      <c r="F37" s="162"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="8"/>
@@ -3336,7 +2706,7 @@
       <c r="B38" s="11"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="165"/>
+      <c r="F38" s="162"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="8"/>
@@ -3351,7 +2721,7 @@
       <c r="B39" s="11"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="165"/>
+      <c r="F39" s="162"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="8"/>
@@ -3364,7 +2734,7 @@
     <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="11"/>
-      <c r="F40" s="166"/>
+      <c r="F40" s="163"/>
       <c r="G40" s="45"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -3375,7 +2745,7 @@
     <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="11"/>
-      <c r="F41" s="166"/>
+      <c r="F41" s="163"/>
       <c r="G41" s="45"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -3386,7 +2756,7 @@
     <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="11"/>
-      <c r="F42" s="166"/>
+      <c r="F42" s="163"/>
       <c r="G42" s="45"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
@@ -3397,7 +2767,7 @@
     <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="11"/>
-      <c r="F43" s="166"/>
+      <c r="F43" s="163"/>
       <c r="G43" s="45"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
@@ -3408,7 +2778,7 @@
     <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="11"/>
-      <c r="F44" s="166"/>
+      <c r="F44" s="163"/>
       <c r="G44" s="45"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -3419,7 +2789,7 @@
     <row r="45" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="11"/>
-      <c r="F45" s="166"/>
+      <c r="F45" s="163"/>
       <c r="G45" s="45"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
@@ -3430,7 +2800,7 @@
     <row r="46" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="11"/>
-      <c r="F46" s="166"/>
+      <c r="F46" s="163"/>
       <c r="G46" s="45"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
@@ -3441,7 +2811,7 @@
     <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="11"/>
-      <c r="F47" s="166"/>
+      <c r="F47" s="163"/>
       <c r="G47" s="45"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -3452,7 +2822,7 @@
     <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="11"/>
-      <c r="F48" s="166"/>
+      <c r="F48" s="163"/>
       <c r="G48" s="45"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
@@ -3463,7 +2833,7 @@
     <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="11"/>
-      <c r="F49" s="166"/>
+      <c r="F49" s="163"/>
       <c r="G49" s="45"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -3477,7 +2847,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="166"/>
+      <c r="F50" s="163"/>
       <c r="G50" s="45"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -3494,7 +2864,7 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="166"/>
+      <c r="F51" s="163"/>
       <c r="G51" s="45"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
@@ -3511,7 +2881,7 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="166"/>
+      <c r="F52" s="163"/>
       <c r="G52" s="45"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
@@ -3528,7 +2898,7 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="166"/>
+      <c r="F53" s="163"/>
       <c r="G53" s="45"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
@@ -3545,7 +2915,7 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="166"/>
+      <c r="F54" s="163"/>
       <c r="G54" s="45"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
@@ -3562,7 +2932,7 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="166"/>
+      <c r="F55" s="163"/>
       <c r="G55" s="45"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -3579,7 +2949,7 @@
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="166"/>
+      <c r="F56" s="163"/>
       <c r="G56" s="45"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
@@ -3596,7 +2966,7 @@
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="166"/>
+      <c r="F57" s="163"/>
       <c r="G57" s="45"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -3613,7 +2983,7 @@
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="166"/>
+      <c r="F58" s="163"/>
       <c r="G58" s="45"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
@@ -3630,7 +3000,7 @@
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="166"/>
+      <c r="F59" s="163"/>
       <c r="G59" s="45"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
@@ -3647,7 +3017,7 @@
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="166"/>
+      <c r="F60" s="163"/>
       <c r="G60" s="45"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
@@ -3664,7 +3034,7 @@
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="166"/>
+      <c r="F61" s="163"/>
       <c r="G61" s="45"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -3681,7 +3051,7 @@
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="166"/>
+      <c r="F62" s="163"/>
       <c r="G62" s="45"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
@@ -3698,7 +3068,7 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="166"/>
+      <c r="F63" s="163"/>
       <c r="G63" s="45"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
@@ -3715,7 +3085,7 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="166"/>
+      <c r="F64" s="163"/>
       <c r="G64" s="45"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
@@ -3732,7 +3102,7 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="166"/>
+      <c r="F65" s="163"/>
       <c r="G65" s="45"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
@@ -3749,7 +3119,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="166"/>
+      <c r="F66" s="163"/>
       <c r="G66" s="45"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
@@ -3766,7 +3136,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="166"/>
+      <c r="F67" s="163"/>
       <c r="G67" s="45"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
@@ -3783,7 +3153,7 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="166"/>
+      <c r="F68" s="163"/>
       <c r="G68" s="45"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
@@ -3800,7 +3170,7 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="166"/>
+      <c r="F69" s="163"/>
       <c r="G69" s="45"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
@@ -3817,7 +3187,7 @@
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="166"/>
+      <c r="F70" s="163"/>
       <c r="G70" s="45"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
@@ -3834,7 +3204,7 @@
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="166"/>
+      <c r="F71" s="163"/>
       <c r="G71" s="45"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
@@ -3851,7 +3221,7 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="166"/>
+      <c r="F72" s="163"/>
       <c r="G72" s="45"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
@@ -3868,7 +3238,7 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="166"/>
+      <c r="F73" s="163"/>
       <c r="G73" s="45"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
@@ -3885,7 +3255,7 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="166"/>
+      <c r="F74" s="163"/>
       <c r="G74" s="45"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
@@ -3902,7 +3272,7 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="166"/>
+      <c r="F75" s="163"/>
       <c r="G75" s="45"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
@@ -3919,7 +3289,7 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="166"/>
+      <c r="F76" s="163"/>
       <c r="G76" s="45"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
@@ -3936,7 +3306,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="166"/>
+      <c r="F77" s="163"/>
       <c r="G77" s="45"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
@@ -3953,7 +3323,7 @@
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="166"/>
+      <c r="F78" s="163"/>
       <c r="G78" s="45"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
@@ -3970,7 +3340,7 @@
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="166"/>
+      <c r="F79" s="163"/>
       <c r="G79" s="45"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
@@ -3987,7 +3357,7 @@
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="166"/>
+      <c r="F80" s="163"/>
       <c r="G80" s="45"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
@@ -4004,7 +3374,7 @@
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="166"/>
+      <c r="F81" s="163"/>
       <c r="G81" s="45"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
@@ -4021,7 +3391,7 @@
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="166"/>
+      <c r="F82" s="163"/>
       <c r="G82" s="45"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
@@ -4038,7 +3408,7 @@
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="166"/>
+      <c r="F83" s="163"/>
       <c r="G83" s="45"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
@@ -4055,7 +3425,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="166"/>
+      <c r="F84" s="163"/>
       <c r="G84" s="45"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
@@ -4072,7 +3442,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="166"/>
+      <c r="F85" s="163"/>
       <c r="G85" s="45"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
@@ -4089,7 +3459,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="166"/>
+      <c r="F86" s="163"/>
       <c r="G86" s="45"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
@@ -4106,7 +3476,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="166"/>
+      <c r="F87" s="163"/>
       <c r="G87" s="45"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -4123,7 +3493,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="166"/>
+      <c r="F88" s="163"/>
       <c r="G88" s="45"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
@@ -4140,7 +3510,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="166"/>
+      <c r="F89" s="163"/>
       <c r="G89" s="45"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
@@ -4157,7 +3527,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="166"/>
+      <c r="F90" s="163"/>
       <c r="G90" s="45"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
@@ -4174,7 +3544,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="166"/>
+      <c r="F91" s="163"/>
       <c r="G91" s="45"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
@@ -4191,7 +3561,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="166"/>
+      <c r="F92" s="163"/>
       <c r="G92" s="45"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
@@ -4208,7 +3578,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="166"/>
+      <c r="F93" s="163"/>
       <c r="G93" s="45"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
@@ -4225,7 +3595,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="166"/>
+      <c r="F94" s="163"/>
       <c r="G94" s="45"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
@@ -4242,7 +3612,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="166"/>
+      <c r="F95" s="163"/>
       <c r="G95" s="45"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
@@ -4259,7 +3629,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="166"/>
+      <c r="F96" s="163"/>
       <c r="G96" s="45"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
@@ -4276,7 +3646,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="166"/>
+      <c r="F97" s="163"/>
       <c r="G97" s="45"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
@@ -4293,7 +3663,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="166"/>
+      <c r="F98" s="163"/>
       <c r="G98" s="45"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
@@ -4310,7 +3680,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="166"/>
+      <c r="F99" s="163"/>
       <c r="G99" s="45"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
@@ -4327,7 +3697,7 @@
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="166"/>
+      <c r="F100" s="163"/>
       <c r="G100" s="45"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
@@ -4344,7 +3714,7 @@
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="166"/>
+      <c r="F101" s="163"/>
       <c r="G101" s="45"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -4361,7 +3731,7 @@
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="166"/>
+      <c r="F102" s="163"/>
       <c r="G102" s="45"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -4378,7 +3748,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="166"/>
+      <c r="F103" s="163"/>
       <c r="G103" s="45"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
@@ -4395,7 +3765,7 @@
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="166"/>
+      <c r="F104" s="163"/>
       <c r="G104" s="45"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -4412,7 +3782,7 @@
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="166"/>
+      <c r="F105" s="163"/>
       <c r="G105" s="45"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
@@ -4429,7 +3799,7 @@
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="166"/>
+      <c r="F106" s="163"/>
       <c r="G106" s="45"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
@@ -4446,7 +3816,7 @@
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="166"/>
+      <c r="F107" s="163"/>
       <c r="G107" s="45"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -4463,7 +3833,7 @@
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="166"/>
+      <c r="F108" s="163"/>
       <c r="G108" s="45"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
@@ -4480,7 +3850,7 @@
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="166"/>
+      <c r="F109" s="163"/>
       <c r="G109" s="45"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
@@ -4497,7 +3867,7 @@
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="166"/>
+      <c r="F110" s="163"/>
       <c r="G110" s="45"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
@@ -4514,7 +3884,7 @@
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="166"/>
+      <c r="F111" s="163"/>
       <c r="G111" s="45"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
@@ -4531,7 +3901,7 @@
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="166"/>
+      <c r="F112" s="163"/>
       <c r="G112" s="45"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
@@ -4548,7 +3918,7 @@
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="166"/>
+      <c r="F113" s="163"/>
       <c r="G113" s="45"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
@@ -4565,7 +3935,7 @@
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="166"/>
+      <c r="F114" s="163"/>
       <c r="G114" s="45"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
@@ -4582,7 +3952,7 @@
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="166"/>
+      <c r="F115" s="163"/>
       <c r="G115" s="45"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
@@ -4599,7 +3969,7 @@
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="166"/>
+      <c r="F116" s="163"/>
       <c r="G116" s="45"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
@@ -4616,7 +3986,7 @@
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="166"/>
+      <c r="F117" s="163"/>
       <c r="G117" s="45"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -4633,7 +4003,7 @@
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="166"/>
+      <c r="F118" s="163"/>
       <c r="G118" s="45"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
@@ -4650,7 +4020,7 @@
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="166"/>
+      <c r="F119" s="163"/>
       <c r="G119" s="45"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9"/>
@@ -4667,7 +4037,7 @@
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="166"/>
+      <c r="F120" s="163"/>
       <c r="G120" s="45"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9"/>
@@ -4684,7 +4054,7 @@
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="166"/>
+      <c r="F121" s="163"/>
       <c r="G121" s="45"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9"/>
@@ -4701,7 +4071,7 @@
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="166"/>
+      <c r="F122" s="163"/>
       <c r="G122" s="45"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
@@ -4718,7 +4088,7 @@
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="166"/>
+      <c r="F123" s="163"/>
       <c r="G123" s="45"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
@@ -4735,7 +4105,7 @@
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="166"/>
+      <c r="F124" s="163"/>
       <c r="G124" s="45"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
@@ -4752,7 +4122,7 @@
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="166"/>
+      <c r="F125" s="163"/>
       <c r="G125" s="45"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9"/>
@@ -4769,7 +4139,7 @@
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="166"/>
+      <c r="F126" s="163"/>
       <c r="G126" s="45"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
@@ -4786,7 +4156,7 @@
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="166"/>
+      <c r="F127" s="163"/>
       <c r="G127" s="45"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9"/>
@@ -4803,7 +4173,7 @@
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="166"/>
+      <c r="F128" s="163"/>
       <c r="G128" s="45"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
@@ -4820,7 +4190,7 @@
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="166"/>
+      <c r="F129" s="163"/>
       <c r="G129" s="45"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9"/>
@@ -4837,7 +4207,7 @@
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="166"/>
+      <c r="F130" s="163"/>
       <c r="G130" s="45"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
@@ -4854,7 +4224,7 @@
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="166"/>
+      <c r="F131" s="163"/>
       <c r="G131" s="45"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -4871,7 +4241,7 @@
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="166"/>
+      <c r="F132" s="163"/>
       <c r="G132" s="45"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9"/>
@@ -4888,7 +4258,7 @@
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="166"/>
+      <c r="F133" s="163"/>
       <c r="G133" s="45"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9"/>
@@ -4905,7 +4275,7 @@
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="166"/>
+      <c r="F134" s="163"/>
       <c r="G134" s="45"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9"/>
@@ -4922,7 +4292,7 @@
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="166"/>
+      <c r="F135" s="163"/>
       <c r="G135" s="45"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
@@ -4939,7 +4309,7 @@
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="166"/>
+      <c r="F136" s="163"/>
       <c r="G136" s="45"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9"/>
@@ -4956,7 +4326,7 @@
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="166"/>
+      <c r="F137" s="163"/>
       <c r="G137" s="45"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -4973,7 +4343,7 @@
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="166"/>
+      <c r="F138" s="163"/>
       <c r="G138" s="45"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9"/>
@@ -4990,7 +4360,7 @@
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="166"/>
+      <c r="F139" s="163"/>
       <c r="G139" s="45"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
@@ -5007,7 +4377,7 @@
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="166"/>
+      <c r="F140" s="163"/>
       <c r="G140" s="45"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
@@ -5024,7 +4394,7 @@
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="166"/>
+      <c r="F141" s="163"/>
       <c r="G141" s="45"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9"/>
@@ -5041,7 +4411,7 @@
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="166"/>
+      <c r="F142" s="163"/>
       <c r="G142" s="45"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9"/>
@@ -5058,7 +4428,7 @@
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="166"/>
+      <c r="F143" s="163"/>
       <c r="G143" s="45"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9"/>
@@ -5075,7 +4445,7 @@
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="166"/>
+      <c r="F144" s="163"/>
       <c r="G144" s="45"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -5092,7 +4462,7 @@
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="166"/>
+      <c r="F145" s="163"/>
       <c r="G145" s="45"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
@@ -5109,7 +4479,7 @@
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="166"/>
+      <c r="F146" s="163"/>
       <c r="G146" s="45"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
@@ -5126,7 +4496,7 @@
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="166"/>
+      <c r="F147" s="163"/>
       <c r="G147" s="45"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9"/>
@@ -5143,7 +4513,7 @@
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="166"/>
+      <c r="F148" s="163"/>
       <c r="G148" s="45"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9"/>
@@ -5160,7 +4530,7 @@
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="166"/>
+      <c r="F149" s="163"/>
       <c r="G149" s="45"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
@@ -5177,7 +4547,7 @@
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="166"/>
+      <c r="F150" s="163"/>
       <c r="G150" s="45"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -5194,7 +4564,7 @@
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="166"/>
+      <c r="F151" s="163"/>
       <c r="G151" s="45"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9"/>
@@ -5211,7 +4581,7 @@
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="166"/>
+      <c r="F152" s="163"/>
       <c r="G152" s="45"/>
       <c r="H152" s="9"/>
       <c r="I152" s="9"/>
@@ -5228,7 +4598,7 @@
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="166"/>
+      <c r="F153" s="163"/>
       <c r="G153" s="45"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9"/>
@@ -5245,7 +4615,7 @@
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="166"/>
+      <c r="F154" s="163"/>
       <c r="G154" s="45"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9"/>
@@ -5262,7 +4632,7 @@
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="166"/>
+      <c r="F155" s="163"/>
       <c r="G155" s="45"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -5287,7 +4657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -5295,7 +4665,7 @@
   </sheetPr>
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -5334,7 +4704,7 @@
       <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -5343,34 +4713,34 @@
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
       <c r="E2" s="59" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
       <c r="H2" s="59"/>
       <c r="I2" s="59"/>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="93" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="81">
         <v>81</v>
       </c>
       <c r="L2" s="59"/>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="94">
+      <c r="N2" s="91">
         <f>SU_A0500_pa+SU_A0500_m+SU_A0500_p+SU_A0500_f+SU_A0500_t</f>
         <v>676.90792699812403</v>
       </c>
       <c r="O2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="93" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C3" s="59"/>
       <c r="D3" s="59"/>
@@ -5382,7 +4752,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
-      <c r="M3" s="96" t="s">
+      <c r="M3" s="93" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="79">
@@ -5391,11 +4761,11 @@
       <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="93" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="60" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
@@ -5404,7 +4774,7 @@
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="59"/>
@@ -5414,11 +4784,11 @@
       <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="93" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -5427,12 +4797,12 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="94" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
-      <c r="M5" s="96" t="s">
+      <c r="M5" s="93" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="76">
@@ -5442,7 +4812,7 @@
       <c r="O5" s="65"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="93" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="16" t="s">
@@ -5455,7 +4825,7 @@
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="94" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="59"/>
@@ -5465,11 +4835,11 @@
       <c r="O6" s="65"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="131" t="s">
-        <v>141</v>
+      <c r="B7" s="128" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -5503,19 +4873,19 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="129" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="59"/>
@@ -5533,14 +4903,14 @@
       <c r="A10" s="19">
         <v>10</v>
       </c>
-      <c r="B10" s="133" t="s">
-        <v>143</v>
+      <c r="B10" s="130" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="33">
-        <f>'SU 510_001'!N2</f>
+        <f>'SU 510 001'!N2</f>
         <v>5.9234014172552163</v>
       </c>
-      <c r="D10" s="134">
+      <c r="D10" s="131">
         <f>SU_510_001_q</f>
         <v>2</v>
       </c>
@@ -5563,10 +4933,10 @@
       <c r="A11" s="66"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="98">
         <f>SUM(E10:E10)</f>
         <v>11.846802834510433</v>
       </c>
@@ -5599,46 +4969,46 @@
       <c r="O12" s="65"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="132" t="s">
+      <c r="D13" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="132" t="s">
+      <c r="J13" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="132" t="s">
+      <c r="K13" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="132" t="s">
+      <c r="L13" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="132" t="s">
+      <c r="M13" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="132" t="s">
+      <c r="N13" s="129" t="s">
         <v>18</v>
       </c>
       <c r="O13" s="65"/>
@@ -5648,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="33">
@@ -5660,8 +5030,8 @@
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="137"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20">
@@ -5678,9 +5048,9 @@
         <v>20</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="138"/>
+        <v>73</v>
+      </c>
+      <c r="C15" s="135"/>
       <c r="D15" s="33">
         <v>25</v>
       </c>
@@ -5691,9 +5061,9 @@
       <c r="G15" s="21"/>
       <c r="H15" s="20"/>
       <c r="I15" s="22"/>
-      <c r="J15" s="139"/>
+      <c r="J15" s="136"/>
       <c r="K15" s="23"/>
-      <c r="L15" s="140"/>
+      <c r="L15" s="137"/>
       <c r="M15" s="25">
         <v>2</v>
       </c>
@@ -5707,8 +5077,8 @@
       <c r="A16" s="28">
         <v>30</v>
       </c>
-      <c r="B16" s="141" t="s">
-        <v>146</v>
+      <c r="B16" s="138" t="s">
+        <v>80</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="33">
@@ -5736,11 +5106,11 @@
       <c r="A17" s="28">
         <v>40</v>
       </c>
-      <c r="B17" s="141" t="s">
-        <v>173</v>
+      <c r="B17" s="138" t="s">
+        <v>107</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="D17" s="33">
         <v>10</v>
@@ -5749,7 +5119,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -5778,10 +5148,10 @@
       <c r="J18" s="26"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
-      <c r="M18" s="135" t="s">
+      <c r="M18" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="98">
         <f>SUM(N14:N17)</f>
         <v>660.08</v>
       </c>
@@ -5805,31 +5175,31 @@
       <c r="O19" s="65"/>
     </row>
     <row r="20" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="96" t="s">
+      <c r="G20" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="96" t="s">
+      <c r="H20" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="96" t="s">
+      <c r="I20" s="93" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="26"/>
@@ -5840,28 +5210,28 @@
       <c r="O20" s="71"/>
     </row>
     <row r="21" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="151">
+      <c r="A21" s="148">
         <v>10</v>
       </c>
-      <c r="B21" s="152" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="151" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="151">
+      <c r="B21" s="149" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="148">
         <v>0.38</v>
       </c>
-      <c r="E21" s="151" t="s">
+      <c r="E21" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="151">
+      <c r="F21" s="148">
         <f>2*1.7</f>
         <v>3.4</v>
       </c>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="154">
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="151">
         <f t="shared" ref="I21:I30" si="0">IF(H21="",D21*F21,D21*F21*H21)</f>
         <v>1.292</v>
       </c>
@@ -5873,27 +5243,27 @@
       <c r="O21" s="71"/>
     </row>
     <row r="22" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="170">
+      <c r="A22" s="167">
         <v>20</v>
       </c>
-      <c r="B22" s="169" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="169" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="168">
+      <c r="B22" s="166" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="165">
         <v>5.25</v>
       </c>
-      <c r="E22" s="170" t="s">
-        <v>175</v>
-      </c>
-      <c r="F22" s="170">
+      <c r="E22" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="167">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="154">
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="151">
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
@@ -5905,27 +5275,27 @@
       <c r="O22" s="71"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="153">
+      <c r="A23" s="150">
         <v>30</v>
       </c>
-      <c r="B23" s="152" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="154">
+      <c r="B23" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="151">
         <v>0.06</v>
       </c>
-      <c r="E23" s="153" t="s">
+      <c r="E23" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="150">
         <v>2</v>
       </c>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="154">
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="151">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -5937,27 +5307,27 @@
       <c r="O23" s="65"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="155">
+      <c r="A24" s="152">
         <v>40</v>
       </c>
-      <c r="B24" s="156" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="155" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="157">
+      <c r="B24" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="152" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="154">
         <v>2</v>
       </c>
-      <c r="E24" s="158" t="s">
+      <c r="E24" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="155">
+      <c r="F24" s="152">
         <v>2</v>
       </c>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="157">
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="154">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5969,27 +5339,27 @@
       <c r="O24" s="65"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="159">
+      <c r="A25" s="156">
         <v>50</v>
       </c>
-      <c r="B25" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="143" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="160">
+      <c r="B25" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="157">
         <v>0.06</v>
       </c>
-      <c r="E25" s="159" t="s">
+      <c r="E25" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="159">
+      <c r="F25" s="156">
         <v>2</v>
       </c>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160">
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="157">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -6001,27 +5371,27 @@
       <c r="O25" s="65"/>
     </row>
     <row r="26" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="159">
+      <c r="A26" s="156">
         <v>60</v>
       </c>
-      <c r="B26" s="143" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="143" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="160">
+      <c r="B26" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="157">
         <v>0.06</v>
       </c>
-      <c r="E26" s="159" t="s">
+      <c r="E26" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="159">
+      <c r="F26" s="156">
         <v>2</v>
       </c>
-      <c r="G26" s="159"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="160">
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="157">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
@@ -6033,27 +5403,27 @@
       <c r="O26" s="68"/>
     </row>
     <row r="27" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159">
+      <c r="A27" s="156">
         <v>70</v>
       </c>
-      <c r="B27" s="161" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="143" t="s">
-        <v>158</v>
-      </c>
-      <c r="D27" s="160">
+      <c r="B27" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="157">
         <v>0.12</v>
       </c>
-      <c r="E27" s="159" t="s">
+      <c r="E27" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="159">
+      <c r="F27" s="156">
         <v>2</v>
       </c>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="160">
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="157">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
@@ -6065,27 +5435,27 @@
       <c r="O27" s="71"/>
     </row>
     <row r="28" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="159">
+      <c r="A28" s="156">
         <v>80</v>
       </c>
-      <c r="B28" s="161" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="143" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="160">
+      <c r="B28" s="158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="157">
         <v>0.12</v>
       </c>
-      <c r="E28" s="159" t="s">
+      <c r="E28" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="159">
+      <c r="F28" s="156">
         <v>2</v>
       </c>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="160">
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="157">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
@@ -6097,27 +5467,27 @@
       <c r="O28" s="71"/>
     </row>
     <row r="29" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159">
+      <c r="A29" s="156">
         <v>90</v>
       </c>
-      <c r="B29" s="161" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="160">
+      <c r="B29" s="158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="157">
         <v>0.75</v>
       </c>
-      <c r="E29" s="162" t="s">
+      <c r="E29" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="159">
+      <c r="F29" s="156">
         <v>2</v>
       </c>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="160">
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="157">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -6129,27 +5499,27 @@
       <c r="O29" s="68"/>
     </row>
     <row r="30" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159">
+      <c r="A30" s="156">
         <v>100</v>
       </c>
-      <c r="B30" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="143" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="160">
+      <c r="B30" s="158" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="140" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="157">
         <v>0.25</v>
       </c>
-      <c r="E30" s="162" t="s">
+      <c r="E30" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="159">
+      <c r="F30" s="156">
         <v>2</v>
       </c>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160">
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="157">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -6168,10 +5538,10 @@
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
-      <c r="H31" s="100" t="s">
+      <c r="H31" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="101">
+      <c r="I31" s="98">
         <f>SUM(I23:I25)</f>
         <v>4.24</v>
       </c>
@@ -6200,34 +5570,34 @@
       <c r="O32" s="65"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="96" t="s">
+      <c r="C33" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="96" t="s">
+      <c r="E33" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="96" t="s">
+      <c r="F33" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="96" t="s">
+      <c r="G33" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="96" t="s">
+      <c r="H33" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="96" t="s">
+      <c r="I33" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="J33" s="96" t="s">
+      <c r="J33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="59"/>
@@ -6244,7 +5614,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D34" s="77">
         <f>0.8/105154*E34^2*G34*SQRT(G34)+0.003*EXP(0.319*E34)</f>
@@ -6283,7 +5653,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D35" s="77">
         <v>0.01</v>
@@ -6317,7 +5687,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D36" s="77">
         <f>0.009*EXP(0.2*E36)</f>
@@ -6353,10 +5723,10 @@
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
       <c r="H37" s="26"/>
-      <c r="I37" s="99" t="s">
+      <c r="I37" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="98">
+      <c r="J37" s="95">
         <f>SUM(J34:J36)</f>
         <v>0.40779083028016511</v>
       </c>
@@ -6384,31 +5754,31 @@
       <c r="O38" s="65"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="96" t="s">
+      <c r="E39" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="96" t="s">
+      <c r="G39" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="H39" s="96" t="s">
+      <c r="H39" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="96" t="s">
+      <c r="I39" s="93" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="26"/>
@@ -6425,8 +5795,8 @@
       <c r="B40" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="172" t="s">
-        <v>181</v>
+      <c r="C40" s="169" t="s">
+        <v>115</v>
       </c>
       <c r="D40" s="76">
         <v>500</v>
@@ -6462,10 +5832,10 @@
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
-      <c r="H41" s="100" t="s">
+      <c r="H41" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="I41" s="101">
+      <c r="I41" s="98">
         <f>SUM(I40:I40)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -6511,44 +5881,44 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" s="59"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
       <c r="E46" s="59"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="59"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
       <c r="E47" s="59"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B48" s="59"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="171"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="168"/>
       <c r="E48" s="59"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="59"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="171"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="168"/>
       <c r="E49" s="59"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="59"/>
-      <c r="C50" s="173"/>
-      <c r="D50" s="171"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="168"/>
       <c r="E50" s="59"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="59"/>
-      <c r="C51" s="173"/>
-      <c r="D51" s="171"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="168"/>
       <c r="E51" s="59"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="59"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="171"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="59"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
@@ -6584,7 +5954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
@@ -6592,8 +5962,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6631,7 +6001,7 @@
       <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="99" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -6642,18 +6012,18 @@
       <c r="E2" s="59"/>
       <c r="F2" s="59"/>
       <c r="G2" s="59" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="H2" s="59"/>
       <c r="I2" s="59"/>
-      <c r="J2" s="103" t="s">
+      <c r="J2" s="100" t="s">
         <v>1</v>
       </c>
       <c r="K2" s="81">
         <v>81</v>
       </c>
       <c r="L2" s="59"/>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="99" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="76">
@@ -6663,7 +6033,7 @@
       <c r="O2" s="65"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="99" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="str">
@@ -6671,11 +6041,11 @@
         <v>Suspension &amp; Shocks</v>
       </c>
       <c r="C3" s="59"/>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="88" t="s">
-        <v>94</v>
+      <c r="E3" s="87" t="s">
+        <v>68</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
@@ -6684,7 +6054,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="59"/>
       <c r="L3" s="59"/>
-      <c r="M3" s="102" t="s">
+      <c r="M3" s="99" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="79">
@@ -6693,15 +6063,15 @@
       <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="87" t="str">
+      <c r="B4" s="86" t="str">
         <f>'SU A0500'!B4</f>
         <v>Front suspension</v>
       </c>
       <c r="C4" s="59"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="99" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="59"/>
@@ -6709,7 +6079,7 @@
       <c r="G4" s="59"/>
       <c r="H4" s="59"/>
       <c r="I4" s="59"/>
-      <c r="J4" s="104" t="s">
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="59"/>
@@ -6719,14 +6089,14 @@
       <c r="O4" s="65"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="99" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C5" s="59"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="59"/>
@@ -6734,12 +6104,12 @@
       <c r="G5" s="59"/>
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="101" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="59"/>
       <c r="L5" s="59"/>
-      <c r="M5" s="102" t="s">
+      <c r="M5" s="99" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="76">
@@ -6749,11 +6119,11 @@
       <c r="O5" s="65"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
+      <c r="A6" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="144" t="s">
-        <v>159</v>
+      <c r="B6" s="141" t="s">
+        <v>116</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -6762,7 +6132,7 @@
       <c r="G6" s="59"/>
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="104" t="s">
+      <c r="J6" s="101" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="59"/>
@@ -6772,7 +6142,7 @@
       <c r="O6" s="65"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="99" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
@@ -6793,11 +6163,11 @@
       <c r="O7" s="65"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="102" t="s">
+      <c r="A8" s="99" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -6831,46 +6201,46 @@
       <c r="O9" s="65"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="105" t="s">
+      <c r="A10" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="107" t="s">
+      <c r="I10" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="107" t="s">
+      <c r="J10" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="107" t="s">
+      <c r="L10" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="107" t="s">
+      <c r="N10" s="104" t="s">
         <v>18</v>
       </c>
       <c r="O10" s="65"/>
@@ -6880,27 +6250,27 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="D11" s="33">
         <v>2.25</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="142">
         <f>J11*K11*L11</f>
         <v>0.17182285211342935</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
       <c r="I11" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="146">
+        <v>98</v>
+      </c>
+      <c r="J11" s="143">
         <f>PI()*0.0155^2</f>
         <v>7.5476763502494771E-4</v>
       </c>
@@ -6932,10 +6302,10 @@
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="109">
+      <c r="N12" s="106">
         <f>SUM(N11:N11)</f>
         <v>0.38660141725521602</v>
       </c>
@@ -6959,35 +6329,35 @@
       <c r="O13" s="65"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="104" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="26"/>
-      <c r="K14" s="150"/>
+      <c r="K14" s="147"/>
       <c r="L14" s="26"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -7001,7 +6371,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="D15" s="35">
         <v>1.3</v>
@@ -7030,22 +6400,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="D16" s="33">
         <v>0.04</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="147">
+        <v>102</v>
+      </c>
+      <c r="F16" s="144">
         <v>2.64</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="H16" s="28">
         <v>3</v>
@@ -7066,7 +6436,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="33">
@@ -7094,22 +6464,22 @@
         <v>21</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="D18" s="33">
         <v>0.04</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="147">
+        <v>102</v>
+      </c>
+      <c r="F18" s="144">
         <v>9.1999999999999993</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="H18" s="28">
         <v>3</v>
@@ -7130,7 +6500,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="33">
@@ -7158,22 +6528,22 @@
         <v>23</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="D20" s="33">
         <v>0.04</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" s="147">
+        <v>102</v>
+      </c>
+      <c r="F20" s="144">
         <v>6.8</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="H20" s="28">
         <v>3</v>
@@ -7193,24 +6563,24 @@
       <c r="A21" s="19">
         <v>30</v>
       </c>
-      <c r="B21" s="142" t="s">
-        <v>171</v>
+      <c r="B21" s="139" t="s">
+        <v>105</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
       <c r="D21" s="33">
         <v>0.35</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="147">
+        <v>106</v>
+      </c>
+      <c r="F21" s="144">
         <v>2</v>
       </c>
       <c r="G21" s="29"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="149">
+      <c r="H21" s="145"/>
+      <c r="I21" s="146">
         <f>IF(H21="",D21*F21,D21*F21*H21)</f>
         <v>0.7</v>
       </c>
@@ -7229,10 +6599,10 @@
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="26"/>
-      <c r="H22" s="111" t="s">
+      <c r="H22" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="109">
+      <c r="I22" s="106">
         <f>SUM(I15:I21)</f>
         <v>5.5368000000000004</v>
       </c>
@@ -7279,7 +6649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF66"/>
@@ -7297,11 +6667,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>180</v>
+      <c r="A1" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/SU - Suspension/Cost/SU_A0500.xlsx
+++ b/SU - Suspension/Cost/SU_A0500.xlsx
@@ -10,7 +10,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196" activeTab="2"/>
+    <workbookView xWindow="4740" yWindow="60" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="8" r:id="rId1"/>
@@ -118,14 +118,14 @@
     <definedName name="zefdsc">#REF!</definedName>
     <definedName name="zefdv">#REF!</definedName>
     <definedName name="zer">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A$1:$O$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A$1:$N$9</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="116">
   <si>
     <t>University</t>
   </si>
@@ -404,9 +404,6 @@
   </si>
   <si>
     <t>Bolt damper to shock front bracket</t>
-  </si>
-  <si>
-    <t>SU 510_001</t>
   </si>
   <si>
     <t>Suspension bracket</t>
@@ -2007,14 +2004,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="H10" sqref="H10"/>
       <selection pane="topRight" activeCell="H10" sqref="H10"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2023,18 +2020,17 @@
     <col min="2" max="2" width="28.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23" style="163" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="14" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="10.44140625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" style="13" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="13"/>
+    <col min="5" max="5" width="23" style="163" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="14" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="10.44140625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -2042,16 +2038,16 @@
         <v>45</v>
       </c>
       <c r="D1" s="46"/>
-      <c r="N1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="57" t="e">
+      <c r="N1" s="47"/>
+      <c r="O1" s="57" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="53" t="s">
         <v>49</v>
       </c>
@@ -2059,9 +2055,9 @@
         <v>69</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:15" s="15" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="54" t="s">
         <v>50</v>
       </c>
@@ -2069,9 +2065,9 @@
         <v>2018</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:16" s="15" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:15" s="15" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
@@ -2082,15 +2078,15 @@
       <c r="D4" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:16" s="39" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:15" s="39" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="42"/>
       <c r="C5" s="40"/>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" s="37" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:15" s="37" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>52</v>
       </c>
@@ -2107,40 +2103,37 @@
         <v>56</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="51" t="s">
         <v>59</v>
       </c>
+      <c r="I6" s="49" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="49" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="N6" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="O6" s="49" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="109"/>
       <c r="B7" s="110" t="str">
         <f>'SU A0500'!B3</f>
@@ -2152,94 +2145,92 @@
       <c r="D7" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="112" t="str">
+      <c r="E7" s="161"/>
+      <c r="F7" s="112" t="str">
         <f>'SU A0500'!B4</f>
         <v>Front suspension</v>
       </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="113">
-        <f t="shared" ref="I7:I8" si="0">SUM(K7:N7)</f>
+      <c r="G7" s="111"/>
+      <c r="H7" s="113">
+        <f t="shared" ref="H7:H8" si="0">SUM(J7:M7)</f>
         <v>665.06112416361361</v>
       </c>
-      <c r="J7" s="114">
+      <c r="I7" s="114">
         <f>SU_A0500_q</f>
         <v>1</v>
       </c>
-      <c r="K7" s="115">
+      <c r="J7" s="115">
         <f>SU_A0500_m</f>
         <v>660.08</v>
       </c>
-      <c r="L7" s="115">
+      <c r="K7" s="115">
         <f>SU_A0500_p</f>
         <v>4.24</v>
       </c>
-      <c r="M7" s="115">
+      <c r="L7" s="115">
         <f>SU_A0500_f</f>
         <v>0.40779083028016511</v>
       </c>
-      <c r="N7" s="115">
+      <c r="M7" s="115">
         <f>SU_A0500_t</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O7" s="116">
-        <f t="shared" ref="O7:O8" si="1">I7*J7</f>
+      <c r="N7" s="116">
+        <f t="shared" ref="N7:N8" si="1">H7*I7</f>
         <v>665.06112416361361</v>
       </c>
-      <c r="P7" s="117"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O7" s="117"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="118"/>
       <c r="B8" s="119" t="str">
         <f>'SU A0500'!B3</f>
         <v>Suspension &amp; Shocks</v>
       </c>
       <c r="C8" s="120" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="D8" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="160" t="str">
-        <f>G7</f>
+      <c r="E8" s="160" t="str">
+        <f>F7</f>
         <v>Front suspension</v>
       </c>
-      <c r="G8" s="122" t="str">
+      <c r="F8" s="122" t="str">
         <f>'SU 510 001'!B5</f>
         <v>Shock Front Bracket</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="123">
+      <c r="G8" s="121"/>
+      <c r="H8" s="123">
         <f t="shared" si="0"/>
         <v>5.9234014172552163</v>
       </c>
-      <c r="J8" s="124">
+      <c r="I8" s="124">
         <f>SU_510_001_q</f>
         <v>2</v>
       </c>
-      <c r="K8" s="125">
+      <c r="J8" s="125">
         <f>SU_510_001_m</f>
         <v>0.38660141725521602</v>
       </c>
-      <c r="L8" s="125">
+      <c r="K8" s="125">
         <f>SU_510_001_p</f>
         <v>5.5368000000000004</v>
       </c>
+      <c r="L8" s="125">
+        <v>0</v>
+      </c>
       <c r="M8" s="125">
         <v>0</v>
       </c>
-      <c r="N8" s="125">
-        <v>0</v>
-      </c>
-      <c r="O8" s="126">
+      <c r="N8" s="126">
         <f t="shared" si="1"/>
         <v>11.846802834510433</v>
       </c>
-      <c r="P8" s="127"/>
-    </row>
-    <row r="9" spans="1:16" s="12" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="127"/>
+    </row>
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="44" t="str">
         <f>'SU A0500'!B3</f>
@@ -2247,2406 +2238,2269 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="44" t="s">
+      <c r="E9" s="164"/>
+      <c r="F9" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="92">
+        <f>SUMPRODUCT($I7:$I8,J7:J8)</f>
+        <v>660.85320283451051</v>
+      </c>
       <c r="K9" s="92">
-        <f>SUMPRODUCT($J7:$J8,K7:K8)</f>
-        <v>660.85320283451051</v>
+        <f>SUMPRODUCT($I7:$I8,K7:K8)</f>
+        <v>15.313600000000001</v>
       </c>
       <c r="L9" s="92">
-        <f>SUMPRODUCT($J7:$J8,L7:L8)</f>
-        <v>15.313600000000001</v>
+        <f>SUMPRODUCT($I7:$I8,L7:L8)</f>
+        <v>0.40779083028016511</v>
       </c>
       <c r="M9" s="92">
-        <f>SUMPRODUCT($J7:$J8,M7:M8)</f>
-        <v>0.40779083028016511</v>
+        <f>SUMPRODUCT($I7:$I8,M7:M8)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N9" s="92">
-        <f>SUMPRODUCT($J7:$J8,N7:N8)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O9" s="92">
-        <f>SUM(O7:O8)</f>
+        <f>SUM(N7:N8)</f>
         <v>676.90792699812403</v>
       </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="45"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="45"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="G13" s="13"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="48"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="48"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="13"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="48"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N15" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="G16" s="13"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="13"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="13"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="13"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="13"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="162"/>
+      <c r="E21" s="162"/>
+      <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="G27" s="13"/>
       <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="162"/>
+      <c r="E29" s="162"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="162"/>
+      <c r="E30" s="162"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="162"/>
+      <c r="E31" s="162"/>
+      <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="13"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="162"/>
+      <c r="E33" s="162"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="13"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="13"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="13"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="162"/>
+      <c r="E39" s="162"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="13"/>
-    </row>
-    <row r="40" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="11"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="45"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="45"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="11"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="45"/>
+      <c r="E41" s="163"/>
+      <c r="F41" s="45"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="11"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="45"/>
+      <c r="E42" s="163"/>
+      <c r="F42" s="45"/>
+      <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="11"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="45"/>
+      <c r="E43" s="163"/>
+      <c r="F43" s="45"/>
+      <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="11"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="45"/>
+      <c r="E44" s="163"/>
+      <c r="F44" s="45"/>
+      <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="11"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="45"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="45"/>
+      <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="11"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="45"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="45"/>
+      <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="11"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="45"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="45"/>
+      <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="11"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="45"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="45"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="11"/>
-      <c r="F49" s="163"/>
-      <c r="G49" s="45"/>
+      <c r="E49" s="163"/>
+      <c r="F49" s="45"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="45"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="9"/>
-    </row>
-    <row r="51" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="11"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="163"/>
-      <c r="G51" s="45"/>
+      <c r="E51" s="163"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="9"/>
-    </row>
-    <row r="52" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="11"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="163"/>
-      <c r="G52" s="45"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="9"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="9"/>
-    </row>
-    <row r="53" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="11"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="163"/>
-      <c r="G53" s="45"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="9"/>
-    </row>
-    <row r="54" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="11"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="163"/>
-      <c r="G54" s="45"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="9"/>
       <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="9"/>
-    </row>
-    <row r="55" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="11"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="163"/>
-      <c r="G55" s="45"/>
+      <c r="E55" s="163"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="9"/>
-    </row>
-    <row r="56" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="11"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="163"/>
-      <c r="G56" s="45"/>
+      <c r="E56" s="163"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="9"/>
-    </row>
-    <row r="57" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="11"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="45"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="9"/>
-    </row>
-    <row r="58" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="163"/>
-      <c r="G58" s="45"/>
+      <c r="E58" s="163"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="9"/>
-    </row>
-    <row r="59" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="45"/>
+      <c r="E59" s="163"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="9"/>
-    </row>
-    <row r="60" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="11"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="163"/>
-      <c r="G60" s="45"/>
+      <c r="E60" s="163"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="9"/>
-    </row>
-    <row r="61" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="11"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="163"/>
-      <c r="G61" s="45"/>
+      <c r="E61" s="163"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="9"/>
       <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="9"/>
-    </row>
-    <row r="62" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="11"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="163"/>
-      <c r="G62" s="45"/>
+      <c r="E62" s="163"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="9"/>
       <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="9"/>
-    </row>
-    <row r="63" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="11"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="163"/>
-      <c r="G63" s="45"/>
+      <c r="E63" s="163"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="9"/>
       <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="9"/>
-    </row>
-    <row r="64" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="163"/>
-      <c r="G64" s="45"/>
+      <c r="E64" s="163"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="9"/>
       <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="9"/>
-    </row>
-    <row r="65" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="11"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="163"/>
-      <c r="G65" s="45"/>
+      <c r="E65" s="163"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="9"/>
-    </row>
-    <row r="66" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="11"/>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="163"/>
-      <c r="G66" s="45"/>
+      <c r="E66" s="163"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="9"/>
       <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="9"/>
-    </row>
-    <row r="67" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="45"/>
+      <c r="E67" s="163"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="9"/>
-    </row>
-    <row r="68" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="163"/>
-      <c r="G68" s="45"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="9"/>
-    </row>
-    <row r="69" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="45"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="9"/>
-    </row>
-    <row r="70" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="163"/>
-      <c r="G70" s="45"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="9"/>
       <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="9"/>
-    </row>
-    <row r="71" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="45"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="9"/>
-    </row>
-    <row r="72" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="163"/>
-      <c r="G72" s="45"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="9"/>
-    </row>
-    <row r="73" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="45"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="9"/>
-    </row>
-    <row r="74" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="11"/>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="163"/>
-      <c r="G74" s="45"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="9"/>
-    </row>
-    <row r="75" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="11"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="45"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="9"/>
       <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="9"/>
-    </row>
-    <row r="76" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="11"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="45"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="9"/>
       <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="9"/>
-    </row>
-    <row r="77" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="11"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="163"/>
-      <c r="G77" s="45"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="9"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="9"/>
-    </row>
-    <row r="78" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="11"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="163"/>
-      <c r="G78" s="45"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="9"/>
-    </row>
-    <row r="79" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="11"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="163"/>
-      <c r="G79" s="45"/>
+      <c r="E79" s="163"/>
+      <c r="F79" s="45"/>
+      <c r="G79" s="9"/>
       <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="9"/>
-    </row>
-    <row r="80" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="163"/>
-      <c r="G80" s="45"/>
+      <c r="E80" s="163"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="9"/>
       <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="9"/>
-    </row>
-    <row r="81" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="163"/>
-      <c r="G81" s="45"/>
+      <c r="E81" s="163"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="9"/>
       <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="9"/>
-    </row>
-    <row r="82" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="11"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="163"/>
-      <c r="G82" s="45"/>
+      <c r="E82" s="163"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="9"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="9"/>
-    </row>
-    <row r="83" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="11"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="163"/>
-      <c r="G83" s="45"/>
+      <c r="E83" s="163"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="9"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="9"/>
-    </row>
-    <row r="84" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="11"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="163"/>
-      <c r="G84" s="45"/>
+      <c r="E84" s="163"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="9"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="9"/>
-    </row>
-    <row r="85" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="163"/>
-      <c r="G85" s="45"/>
+      <c r="E85" s="163"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="9"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="9"/>
-    </row>
-    <row r="86" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="11"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="163"/>
-      <c r="G86" s="45"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="9"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="9"/>
-    </row>
-    <row r="87" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="11"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="163"/>
-      <c r="G87" s="45"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="9"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="9"/>
-    </row>
-    <row r="88" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="11"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="163"/>
-      <c r="G88" s="45"/>
+      <c r="E88" s="163"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="9"/>
       <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="9"/>
-    </row>
-    <row r="89" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="163"/>
-      <c r="G89" s="45"/>
+      <c r="E89" s="163"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="9"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="9"/>
-    </row>
-    <row r="90" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="163"/>
-      <c r="G90" s="45"/>
+      <c r="E90" s="163"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="9"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="9"/>
-    </row>
-    <row r="91" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="11"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="163"/>
-      <c r="G91" s="45"/>
+      <c r="E91" s="163"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="9"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="9"/>
-    </row>
-    <row r="92" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="163"/>
-      <c r="G92" s="45"/>
+      <c r="E92" s="163"/>
+      <c r="F92" s="45"/>
+      <c r="G92" s="9"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="9"/>
-    </row>
-    <row r="93" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="163"/>
-      <c r="G93" s="45"/>
+      <c r="E93" s="163"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="9"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="6"/>
       <c r="J93" s="6"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
-      <c r="O93" s="9"/>
-    </row>
-    <row r="94" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="11"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="163"/>
-      <c r="G94" s="45"/>
+      <c r="E94" s="163"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="9"/>
       <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="6"/>
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="9"/>
-    </row>
-    <row r="95" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="11"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="163"/>
-      <c r="G95" s="45"/>
+      <c r="E95" s="163"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="9"/>
       <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="6"/>
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="9"/>
-    </row>
-    <row r="96" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="11"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="163"/>
-      <c r="G96" s="45"/>
+      <c r="E96" s="163"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="6"/>
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="9"/>
-    </row>
-    <row r="97" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="11"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="163"/>
-      <c r="G97" s="45"/>
+      <c r="E97" s="163"/>
+      <c r="F97" s="45"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="6"/>
       <c r="J97" s="6"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="9"/>
-    </row>
-    <row r="98" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="163"/>
-      <c r="G98" s="45"/>
+      <c r="E98" s="163"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="9"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="9"/>
-    </row>
-    <row r="99" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N98" s="9"/>
+    </row>
+    <row r="99" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="163"/>
-      <c r="G99" s="45"/>
+      <c r="E99" s="163"/>
+      <c r="F99" s="45"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="6"/>
       <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="9"/>
-    </row>
-    <row r="100" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="11"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="163"/>
-      <c r="G100" s="45"/>
+      <c r="E100" s="163"/>
+      <c r="F100" s="45"/>
+      <c r="G100" s="9"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="6"/>
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="9"/>
-    </row>
-    <row r="101" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7"/>
       <c r="B101" s="11"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="163"/>
-      <c r="G101" s="45"/>
+      <c r="E101" s="163"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="9"/>
       <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="6"/>
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="9"/>
-    </row>
-    <row r="102" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7"/>
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="163"/>
-      <c r="G102" s="45"/>
+      <c r="E102" s="163"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="9"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="I102" s="6"/>
       <c r="J102" s="6"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="9"/>
-    </row>
-    <row r="103" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="163"/>
-      <c r="G103" s="45"/>
+      <c r="E103" s="163"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="9"/>
       <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
-      <c r="O103" s="9"/>
-    </row>
-    <row r="104" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7"/>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="163"/>
-      <c r="G104" s="45"/>
+      <c r="E104" s="163"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="9"/>
       <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="6"/>
       <c r="J104" s="6"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="9"/>
-    </row>
-    <row r="105" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
       <c r="B105" s="11"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="163"/>
-      <c r="G105" s="45"/>
+      <c r="E105" s="163"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="9"/>
       <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
+      <c r="I105" s="6"/>
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="9"/>
-    </row>
-    <row r="106" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="11"/>
       <c r="C106" s="9"/>
       <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="163"/>
-      <c r="G106" s="45"/>
+      <c r="E106" s="163"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="9"/>
       <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="6"/>
       <c r="J106" s="6"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="9"/>
-    </row>
-    <row r="107" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N106" s="9"/>
+    </row>
+    <row r="107" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7"/>
       <c r="B107" s="11"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="163"/>
-      <c r="G107" s="45"/>
+      <c r="E107" s="163"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="9"/>
       <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
+      <c r="I107" s="6"/>
       <c r="J107" s="6"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="9"/>
-    </row>
-    <row r="108" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7"/>
       <c r="B108" s="11"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="163"/>
-      <c r="G108" s="45"/>
+      <c r="E108" s="163"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="9"/>
       <c r="H108" s="9"/>
-      <c r="I108" s="9"/>
+      <c r="I108" s="6"/>
       <c r="J108" s="6"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="9"/>
-    </row>
-    <row r="109" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
       <c r="B109" s="11"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="163"/>
-      <c r="G109" s="45"/>
+      <c r="E109" s="163"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="9"/>
       <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="9"/>
-    </row>
-    <row r="110" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7"/>
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="163"/>
-      <c r="G110" s="45"/>
+      <c r="E110" s="163"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="9"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="6"/>
       <c r="J110" s="6"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="9"/>
-    </row>
-    <row r="111" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N110" s="9"/>
+    </row>
+    <row r="111" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7"/>
       <c r="B111" s="11"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="163"/>
-      <c r="G111" s="45"/>
+      <c r="E111" s="163"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="9"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="6"/>
       <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="9"/>
-    </row>
-    <row r="112" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N111" s="9"/>
+    </row>
+    <row r="112" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
       <c r="B112" s="11"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="163"/>
-      <c r="G112" s="45"/>
+      <c r="E112" s="163"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="9"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
+      <c r="I112" s="6"/>
       <c r="J112" s="6"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="9"/>
-    </row>
-    <row r="113" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7"/>
       <c r="B113" s="11"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="163"/>
-      <c r="G113" s="45"/>
+      <c r="E113" s="163"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="9"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="6"/>
       <c r="J113" s="6"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="9"/>
-    </row>
-    <row r="114" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N113" s="9"/>
+    </row>
+    <row r="114" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="163"/>
-      <c r="G114" s="45"/>
+      <c r="E114" s="163"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="9"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="6"/>
       <c r="J114" s="6"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="9"/>
-    </row>
-    <row r="115" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="163"/>
-      <c r="G115" s="45"/>
+      <c r="E115" s="163"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="9"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="6"/>
       <c r="J115" s="6"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="9"/>
-    </row>
-    <row r="116" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="163"/>
-      <c r="G116" s="45"/>
+      <c r="E116" s="163"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="9"/>
       <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="6"/>
       <c r="J116" s="6"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="9"/>
-    </row>
-    <row r="117" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7"/>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="163"/>
-      <c r="G117" s="45"/>
+      <c r="E117" s="163"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="9"/>
       <c r="H117" s="9"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="6"/>
       <c r="J117" s="6"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="9"/>
-    </row>
-    <row r="118" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N117" s="9"/>
+    </row>
+    <row r="118" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="11"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="163"/>
-      <c r="G118" s="45"/>
+      <c r="E118" s="163"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="9"/>
       <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="9"/>
-    </row>
-    <row r="119" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7"/>
       <c r="B119" s="11"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="163"/>
-      <c r="G119" s="45"/>
+      <c r="E119" s="163"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="9"/>
       <c r="H119" s="9"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="9"/>
-    </row>
-    <row r="120" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7"/>
       <c r="B120" s="11"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="163"/>
-      <c r="G120" s="45"/>
+      <c r="E120" s="163"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="9"/>
       <c r="H120" s="9"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="9"/>
-    </row>
-    <row r="121" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N120" s="9"/>
+    </row>
+    <row r="121" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="11"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="163"/>
-      <c r="G121" s="45"/>
+      <c r="E121" s="163"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="9"/>
       <c r="H121" s="9"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="9"/>
-    </row>
-    <row r="122" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N121" s="9"/>
+    </row>
+    <row r="122" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
       <c r="B122" s="11"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="163"/>
-      <c r="G122" s="45"/>
+      <c r="E122" s="163"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="9"/>
       <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="9"/>
-    </row>
-    <row r="123" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N122" s="9"/>
+    </row>
+    <row r="123" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7"/>
       <c r="B123" s="11"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="163"/>
-      <c r="G123" s="45"/>
+      <c r="E123" s="163"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="9"/>
       <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
+      <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="9"/>
-    </row>
-    <row r="124" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N123" s="9"/>
+    </row>
+    <row r="124" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="11"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="163"/>
-      <c r="G124" s="45"/>
+      <c r="E124" s="163"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="9"/>
       <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="9"/>
-    </row>
-    <row r="125" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N124" s="9"/>
+    </row>
+    <row r="125" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="11"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="163"/>
-      <c r="G125" s="45"/>
+      <c r="E125" s="163"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="9"/>
       <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
+      <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="9"/>
-    </row>
-    <row r="126" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N125" s="9"/>
+    </row>
+    <row r="126" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
       <c r="B126" s="11"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="163"/>
-      <c r="G126" s="45"/>
+      <c r="E126" s="163"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="9"/>
       <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
+      <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="9"/>
-    </row>
-    <row r="127" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N126" s="9"/>
+    </row>
+    <row r="127" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="11"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="163"/>
-      <c r="G127" s="45"/>
+      <c r="E127" s="163"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="9"/>
       <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="9"/>
-    </row>
-    <row r="128" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N127" s="9"/>
+    </row>
+    <row r="128" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
       <c r="B128" s="11"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="163"/>
-      <c r="G128" s="45"/>
+      <c r="E128" s="163"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="9"/>
       <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="9"/>
-    </row>
-    <row r="129" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N128" s="9"/>
+    </row>
+    <row r="129" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
       <c r="B129" s="11"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="163"/>
-      <c r="G129" s="45"/>
+      <c r="E129" s="163"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="9"/>
       <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="9"/>
-    </row>
-    <row r="130" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N129" s="9"/>
+    </row>
+    <row r="130" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
       <c r="B130" s="11"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="163"/>
-      <c r="G130" s="45"/>
+      <c r="E130" s="163"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="9"/>
       <c r="H130" s="9"/>
-      <c r="I130" s="9"/>
+      <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="9"/>
-    </row>
-    <row r="131" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N130" s="9"/>
+    </row>
+    <row r="131" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
       <c r="B131" s="11"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="163"/>
-      <c r="G131" s="45"/>
+      <c r="E131" s="163"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="9"/>
       <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
+      <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="9"/>
-    </row>
-    <row r="132" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N131" s="9"/>
+    </row>
+    <row r="132" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
       <c r="B132" s="11"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="163"/>
-      <c r="G132" s="45"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="45"/>
+      <c r="G132" s="9"/>
       <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
+      <c r="I132" s="6"/>
       <c r="J132" s="6"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="9"/>
-    </row>
-    <row r="133" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N132" s="9"/>
+    </row>
+    <row r="133" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
       <c r="B133" s="11"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="163"/>
-      <c r="G133" s="45"/>
+      <c r="E133" s="163"/>
+      <c r="F133" s="45"/>
+      <c r="G133" s="9"/>
       <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
+      <c r="I133" s="6"/>
       <c r="J133" s="6"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="9"/>
-    </row>
-    <row r="134" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N133" s="9"/>
+    </row>
+    <row r="134" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
       <c r="B134" s="11"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="163"/>
-      <c r="G134" s="45"/>
+      <c r="E134" s="163"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="9"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="6"/>
       <c r="J134" s="6"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="9"/>
-    </row>
-    <row r="135" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N134" s="9"/>
+    </row>
+    <row r="135" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="11"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="163"/>
-      <c r="G135" s="45"/>
+      <c r="E135" s="163"/>
+      <c r="F135" s="45"/>
+      <c r="G135" s="9"/>
       <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
+      <c r="I135" s="6"/>
       <c r="J135" s="6"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="9"/>
-    </row>
-    <row r="136" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N135" s="9"/>
+    </row>
+    <row r="136" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="11"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="163"/>
-      <c r="G136" s="45"/>
+      <c r="E136" s="163"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="9"/>
       <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
+      <c r="I136" s="6"/>
       <c r="J136" s="6"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="9"/>
-    </row>
-    <row r="137" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N136" s="9"/>
+    </row>
+    <row r="137" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="11"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="163"/>
-      <c r="G137" s="45"/>
+      <c r="E137" s="163"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="9"/>
       <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="6"/>
       <c r="J137" s="6"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="9"/>
-    </row>
-    <row r="138" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N137" s="9"/>
+    </row>
+    <row r="138" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="11"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="163"/>
-      <c r="G138" s="45"/>
+      <c r="E138" s="163"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="9"/>
       <c r="H138" s="9"/>
-      <c r="I138" s="9"/>
+      <c r="I138" s="6"/>
       <c r="J138" s="6"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="9"/>
-    </row>
-    <row r="139" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N138" s="9"/>
+    </row>
+    <row r="139" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="11"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="163"/>
-      <c r="G139" s="45"/>
+      <c r="E139" s="163"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="9"/>
       <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="I139" s="6"/>
       <c r="J139" s="6"/>
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="9"/>
-    </row>
-    <row r="140" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N139" s="9"/>
+    </row>
+    <row r="140" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="11"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="163"/>
-      <c r="G140" s="45"/>
+      <c r="E140" s="163"/>
+      <c r="F140" s="45"/>
+      <c r="G140" s="9"/>
       <c r="H140" s="9"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="6"/>
       <c r="J140" s="6"/>
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="9"/>
-    </row>
-    <row r="141" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N140" s="9"/>
+    </row>
+    <row r="141" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="11"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="163"/>
-      <c r="G141" s="45"/>
+      <c r="E141" s="163"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="9"/>
       <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
+      <c r="I141" s="6"/>
       <c r="J141" s="6"/>
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="9"/>
-    </row>
-    <row r="142" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N141" s="9"/>
+    </row>
+    <row r="142" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="11"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="163"/>
-      <c r="G142" s="45"/>
+      <c r="E142" s="163"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="9"/>
       <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
+      <c r="I142" s="6"/>
       <c r="J142" s="6"/>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="9"/>
-    </row>
-    <row r="143" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N142" s="9"/>
+    </row>
+    <row r="143" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="11"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="163"/>
-      <c r="G143" s="45"/>
+      <c r="E143" s="163"/>
+      <c r="F143" s="45"/>
+      <c r="G143" s="9"/>
       <c r="H143" s="9"/>
-      <c r="I143" s="9"/>
+      <c r="I143" s="6"/>
       <c r="J143" s="6"/>
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="9"/>
-    </row>
-    <row r="144" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N143" s="9"/>
+    </row>
+    <row r="144" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="11"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="163"/>
-      <c r="G144" s="45"/>
+      <c r="E144" s="163"/>
+      <c r="F144" s="45"/>
+      <c r="G144" s="9"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="I144" s="6"/>
       <c r="J144" s="6"/>
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="9"/>
-    </row>
-    <row r="145" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N144" s="9"/>
+    </row>
+    <row r="145" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="11"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="163"/>
-      <c r="G145" s="45"/>
+      <c r="E145" s="163"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="9"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="I145" s="6"/>
       <c r="J145" s="6"/>
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="9"/>
-    </row>
-    <row r="146" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N145" s="9"/>
+    </row>
+    <row r="146" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7"/>
       <c r="B146" s="11"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="163"/>
-      <c r="G146" s="45"/>
+      <c r="E146" s="163"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="9"/>
       <c r="H146" s="9"/>
-      <c r="I146" s="9"/>
+      <c r="I146" s="6"/>
       <c r="J146" s="6"/>
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="9"/>
-    </row>
-    <row r="147" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N146" s="9"/>
+    </row>
+    <row r="147" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7"/>
       <c r="B147" s="11"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="163"/>
-      <c r="G147" s="45"/>
+      <c r="E147" s="163"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="9"/>
       <c r="H147" s="9"/>
-      <c r="I147" s="9"/>
+      <c r="I147" s="6"/>
       <c r="J147" s="6"/>
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="9"/>
-    </row>
-    <row r="148" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N147" s="9"/>
+    </row>
+    <row r="148" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="11"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="163"/>
-      <c r="G148" s="45"/>
+      <c r="E148" s="163"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="9"/>
       <c r="H148" s="9"/>
-      <c r="I148" s="9"/>
+      <c r="I148" s="6"/>
       <c r="J148" s="6"/>
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="9"/>
-    </row>
-    <row r="149" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N148" s="9"/>
+    </row>
+    <row r="149" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="11"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="163"/>
-      <c r="G149" s="45"/>
+      <c r="E149" s="163"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="9"/>
       <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
+      <c r="I149" s="6"/>
       <c r="J149" s="6"/>
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="9"/>
-    </row>
-    <row r="150" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N149" s="9"/>
+    </row>
+    <row r="150" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="11"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="163"/>
-      <c r="G150" s="45"/>
+      <c r="E150" s="163"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="9"/>
       <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
+      <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="9"/>
-    </row>
-    <row r="151" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N150" s="9"/>
+    </row>
+    <row r="151" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="11"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="163"/>
-      <c r="G151" s="45"/>
+      <c r="E151" s="163"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="9"/>
       <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
+      <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="9"/>
-    </row>
-    <row r="152" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N151" s="9"/>
+    </row>
+    <row r="152" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="11"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="163"/>
-      <c r="G152" s="45"/>
+      <c r="E152" s="163"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="9"/>
       <c r="H152" s="9"/>
-      <c r="I152" s="9"/>
+      <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="9"/>
-    </row>
-    <row r="153" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N152" s="9"/>
+    </row>
+    <row r="153" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="11"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="163"/>
-      <c r="G153" s="45"/>
+      <c r="E153" s="163"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="9"/>
       <c r="H153" s="9"/>
-      <c r="I153" s="9"/>
+      <c r="I153" s="6"/>
       <c r="J153" s="6"/>
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="9"/>
-    </row>
-    <row r="154" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N153" s="9"/>
+    </row>
+    <row r="154" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="11"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
-      <c r="F154" s="163"/>
-      <c r="G154" s="45"/>
+      <c r="E154" s="163"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="9"/>
       <c r="H154" s="9"/>
-      <c r="I154" s="9"/>
+      <c r="I154" s="6"/>
       <c r="J154" s="6"/>
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="9"/>
-    </row>
-    <row r="155" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N154" s="9"/>
+    </row>
+    <row r="155" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="11"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
-      <c r="F155" s="163"/>
-      <c r="G155" s="45"/>
+      <c r="E155" s="163"/>
+      <c r="F155" s="45"/>
+      <c r="G155" s="9"/>
       <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
+      <c r="I155" s="6"/>
       <c r="J155" s="6"/>
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="9"/>
+      <c r="N155" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G8" location="BR_01001" display="BR_01001"/>
-    <hyperlink ref="G7" location="'SU A0500'!A1" display="'SU A0500'!A1"/>
+    <hyperlink ref="F8" location="SU_510_001" display="SU_510_001"/>
+    <hyperlink ref="F7" location="'SU A0500'!A1" display="'SU A0500'!A1"/>
   </hyperlinks>
   <pageMargins left="0.41" right="0.22" top="0.72" bottom="0.57999999999999996" header="0.5" footer="0.26"/>
   <pageSetup scale="61" fitToHeight="99" orientation="landscape" r:id="rId1"/>
@@ -4666,7 +4520,7 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5107,10 +4961,10 @@
         <v>40</v>
       </c>
       <c r="B17" s="138" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>107</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>108</v>
       </c>
       <c r="D17" s="33">
         <v>10</v>
@@ -5119,7 +4973,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -5214,10 +5068,10 @@
         <v>10</v>
       </c>
       <c r="B21" s="149" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="148" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="148">
         <v>0.38</v>
@@ -5247,16 +5101,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="166" t="s">
         <v>112</v>
-      </c>
-      <c r="C22" s="166" t="s">
-        <v>113</v>
       </c>
       <c r="D22" s="165">
         <v>5.25</v>
       </c>
       <c r="E22" s="167" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="167">
         <v>4.0000000000000001E-3</v>
@@ -5796,7 +5650,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="169" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" s="76">
         <v>500</v>
@@ -5962,8 +5816,8 @@
   </sheetPr>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6123,7 +5977,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -6167,7 +6021,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -6250,10 +6104,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="D11" s="33">
         <v>2.25</v>
@@ -6263,12 +6117,12 @@
         <v>0.17182285211342935</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="20"/>
       <c r="I11" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="143">
         <f>PI()*0.0155^2</f>
@@ -6371,7 +6225,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15" s="35">
         <v>1.3</v>
@@ -6400,22 +6254,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="D16" s="33">
         <v>0.04</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="144">
         <v>2.64</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" s="28">
         <v>3</v>
@@ -6436,7 +6290,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="33">
@@ -6464,22 +6318,22 @@
         <v>21</v>
       </c>
       <c r="B18" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="D18" s="33">
         <v>0.04</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="144">
         <v>9.1999999999999993</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="28">
         <v>3</v>
@@ -6500,7 +6354,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="33">
@@ -6528,22 +6382,22 @@
         <v>23</v>
       </c>
       <c r="B20" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="33">
         <v>0.04</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="144">
         <v>6.8</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H20" s="28">
         <v>3</v>
@@ -6564,16 +6418,16 @@
         <v>30</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="33">
         <v>0.35</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="144">
         <v>2</v>
@@ -6671,7 +6525,7 @@
         <v>67</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/SU - Suspension/Cost/SU_A0500.xlsx
+++ b/SU - Suspension/Cost/SU_A0500.xlsx
@@ -6,7 +6,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitEPSA\SU - Suspension\Cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maquette_EPSA\SU - Suspension\Cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,77 +19,12 @@
     <sheet name="dSU 510 001" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="____________uni2">#REF!</definedName>
-    <definedName name="_________uni3">#REF!</definedName>
-    <definedName name="________uni2">#REF!</definedName>
-    <definedName name="________uni26">#REF!</definedName>
-    <definedName name="________uni4">#REF!</definedName>
-    <definedName name="________uni6">#REF!</definedName>
-    <definedName name="________uni7">#REF!</definedName>
-    <definedName name="______uni14">#REF!</definedName>
-    <definedName name="______uni54">#REF!</definedName>
-    <definedName name="_____uni3">#REF!</definedName>
-    <definedName name="____uni26">#REF!</definedName>
-    <definedName name="____uni4">#REF!</definedName>
-    <definedName name="____uni6">#REF!</definedName>
-    <definedName name="____uni7">#REF!</definedName>
-    <definedName name="___uni14">#REF!</definedName>
-    <definedName name="___uni54">#REF!</definedName>
-    <definedName name="_uni14">#REF!</definedName>
-    <definedName name="_uni2">#REF!</definedName>
-    <definedName name="_uni26">#REF!</definedName>
-    <definedName name="_uni3">#REF!</definedName>
-    <definedName name="_uni4">#REF!</definedName>
-    <definedName name="_uni54">#REF!</definedName>
-    <definedName name="_uni6">#REF!</definedName>
-    <definedName name="_uni7">#REF!</definedName>
-    <definedName name="bgtrvfcd">#REF!</definedName>
-    <definedName name="bgtvfc">#REF!</definedName>
-    <definedName name="bgvfcd">#REF!</definedName>
-    <definedName name="btgrvf">#REF!</definedName>
-    <definedName name="btvfcds">#REF!</definedName>
-    <definedName name="Car" localSheetId="0">BOM!$B$4</definedName>
-    <definedName name="Car">#REF!</definedName>
-    <definedName name="CompCode" localSheetId="0">BOM!$B$2</definedName>
-    <definedName name="CompCode">#REF!</definedName>
-    <definedName name="cwlkvclwekjc">#REF!</definedName>
-    <definedName name="dede">#REF!</definedName>
-    <definedName name="dqwdqd">#REF!</definedName>
-    <definedName name="dSU_510_001">'dSU 510 001'!$B$1</definedName>
-    <definedName name="eded">#REF!</definedName>
-    <definedName name="er">#REF!</definedName>
-    <definedName name="ervcdx">#REF!</definedName>
-    <definedName name="ezfdscx">#REF!</definedName>
-    <definedName name="gbvf">#REF!</definedName>
-    <definedName name="gbvfcd">#REF!</definedName>
-    <definedName name="gr">#REF!</definedName>
-    <definedName name="gref">#REF!</definedName>
-    <definedName name="grefzd">#REF!</definedName>
-    <definedName name="grfd">#REF!</definedName>
-    <definedName name="gtrfeds">#REF!</definedName>
-    <definedName name="gtrvfec">#REF!</definedName>
-    <definedName name="gvfc">#REF!</definedName>
-    <definedName name="gvfcd">#REF!</definedName>
-    <definedName name="gvfdc">#REF!</definedName>
-    <definedName name="hgfd">#REF!</definedName>
-    <definedName name="hygtrfvcdx">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">BOM!$6:$6</definedName>
-    <definedName name="nbtgv">#REF!</definedName>
-    <definedName name="process">#REF!</definedName>
-    <definedName name="Process_P1">#REF!</definedName>
-    <definedName name="Processes" localSheetId="0">#REF!</definedName>
-    <definedName name="Processes">#REF!</definedName>
-    <definedName name="qsfdc">#REF!</definedName>
-    <definedName name="rfcdx">#REF!</definedName>
-    <definedName name="rfds">#REF!</definedName>
-    <definedName name="rtfed">#REF!</definedName>
-    <definedName name="sdf">#REF!</definedName>
-    <definedName name="SU_510_001">'SU 510 001'!$B$6</definedName>
-    <definedName name="SU_510_001_f">'SU 510 001'!#REF!</definedName>
-    <definedName name="SU_510_001_m">'SU 510 001'!$N$12</definedName>
-    <definedName name="SU_510_001_p">'SU 510 001'!$I$22</definedName>
-    <definedName name="SU_510_001_q">'SU 510 001'!$N$3</definedName>
-    <definedName name="SU_510_001_t">'SU 510 001'!#REF!</definedName>
+    <definedName name="SU_05001">'SU 510 001'!$B$6</definedName>
+    <definedName name="SU_05001_f">'SU 510 001'!#REF!</definedName>
+    <definedName name="SU_05001_m">'SU 510 001'!$N$12</definedName>
+    <definedName name="SU_05001_p">'SU 510 001'!$I$22</definedName>
+    <definedName name="SU_05001_q">'SU 510 001'!$N$3</definedName>
+    <definedName name="SU_05001_t">'SU 510 001'!#REF!</definedName>
     <definedName name="SU_A0500">'SU A0500'!$B$5</definedName>
     <definedName name="SU_A0500_f">'SU A0500'!$J$37</definedName>
     <definedName name="SU_A0500_m">'SU A0500'!$N$18</definedName>
@@ -97,30 +32,8 @@
     <definedName name="SU_A0500_pa">'SU A0500'!$E$11</definedName>
     <definedName name="SU_A0500_q">'SU A0500'!$N$3</definedName>
     <definedName name="SU_A0500_t">'SU A0500'!$I$41</definedName>
-    <definedName name="tgfrd">#REF!</definedName>
-    <definedName name="tgrc">#REF!</definedName>
-    <definedName name="tgrf">#REF!</definedName>
-    <definedName name="tgrfcd">#REF!</definedName>
-    <definedName name="tgvrfcd">#REF!</definedName>
-    <definedName name="trfcd">#REF!</definedName>
-    <definedName name="trfds">#REF!</definedName>
-    <definedName name="trhzjyeuk">#REF!</definedName>
-    <definedName name="ujyhbgvf">#REF!</definedName>
-    <definedName name="Uni" localSheetId="0">BOM!#REF!</definedName>
-    <definedName name="Uni">#REF!</definedName>
-    <definedName name="vfcd">#REF!</definedName>
-    <definedName name="vfcdsx">#REF!</definedName>
-    <definedName name="vfdcx">#REF!</definedName>
-    <definedName name="vredcs">#REF!</definedName>
-    <definedName name="yjhtrefz">#REF!</definedName>
-    <definedName name="zaed">#REF!</definedName>
-    <definedName name="zefds">#REF!</definedName>
-    <definedName name="zefdsc">#REF!</definedName>
-    <definedName name="zefdv">#REF!</definedName>
-    <definedName name="zer">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BOM!$A$1:$N$9</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -478,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="18">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
@@ -2207,15 +2120,15 @@
         <v>5.9234014172552163</v>
       </c>
       <c r="I8" s="124">
-        <f>SU_510_001_q</f>
+        <f>SU_05001_q</f>
         <v>2</v>
       </c>
       <c r="J8" s="125">
-        <f>SU_510_001_m</f>
+        <f>SU_05001_m</f>
         <v>0.38660141725521602</v>
       </c>
       <c r="K8" s="125">
-        <f>SU_510_001_p</f>
+        <f>SU_05001_p</f>
         <v>5.5368000000000004</v>
       </c>
       <c r="L8" s="125">
@@ -4503,7 +4416,7 @@
     <hyperlink ref="F7" location="'SU A0500'!A1" display="'SU A0500'!A1"/>
   </hyperlinks>
   <pageMargins left="0.41" right="0.22" top="0.72" bottom="0.57999999999999996" header="0.5" footer="0.26"/>
-  <pageSetup scale="61" fitToHeight="99" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="57" fitToHeight="99" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="6" max="16383" man="1"/>
@@ -4765,7 +4678,7 @@
         <v>5.9234014172552163</v>
       </c>
       <c r="D10" s="131">
-        <f>SU_510_001_q</f>
+        <f>SU_05001_q</f>
         <v>2</v>
       </c>
       <c r="E10" s="33">
@@ -5881,7 +5794,7 @@
         <v>16</v>
       </c>
       <c r="N2" s="76">
-        <f>SU_510_001_m+SU_510_001_p</f>
+        <f>SU_05001_m+SU_05001_p</f>
         <v>5.9234014172552163</v>
       </c>
       <c r="O2" s="65"/>
